--- a/config_12.22/permission_server_config.xlsx
+++ b/config_12.22/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4590" uniqueCount="2001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="2002">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8775,10 +8775,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>2020年11月23日23:59:59结束</t>
   </si>
   <si>
@@ -9294,6 +9290,14 @@
   </si>
   <si>
     <t>冲金鸡官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动使用锤子（全体）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11331,7 +11335,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11367,7 +11371,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11506,7 +11510,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14057,7 +14061,7 @@
         <v>1391</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -14131,10 +14135,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C360" s="3">
         <v>343</v>
@@ -14494,10 +14498,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="27" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B411" s="27" t="s">
         <v>1883</v>
-      </c>
-      <c r="B411" s="27" t="s">
-        <v>1884</v>
       </c>
       <c r="C411" s="3">
         <v>339</v>
@@ -14505,10 +14509,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>1889</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>1890</v>
       </c>
       <c r="C413" s="3">
         <v>326</v>
@@ -14516,37 +14520,37 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="34" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1891</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1892</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1893</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1894</v>
       </c>
       <c r="C416" s="9"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1895</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1896</v>
       </c>
       <c r="C417" s="9"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1897</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1898</v>
       </c>
       <c r="C418" s="57">
         <v>22</v>
@@ -14554,10 +14558,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1899</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1900</v>
       </c>
       <c r="C419" s="57">
         <v>22</v>
@@ -14565,10 +14569,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1901</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1902</v>
       </c>
       <c r="C420" s="57">
         <v>22</v>
@@ -14576,10 +14580,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1903</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1904</v>
       </c>
       <c r="C421" s="57">
         <v>23</v>
@@ -14587,10 +14591,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1905</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1906</v>
       </c>
       <c r="C422" s="57">
         <v>23</v>
@@ -14598,10 +14602,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1907</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1908</v>
       </c>
       <c r="C423" s="9">
         <v>24</v>
@@ -14609,10 +14613,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B424" s="10" t="s">
         <v>1909</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>1910</v>
       </c>
       <c r="C424" s="9">
         <v>25</v>
@@ -14620,10 +14624,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B425" s="10" t="s">
         <v>1911</v>
-      </c>
-      <c r="B425" s="10" t="s">
-        <v>1912</v>
       </c>
       <c r="C425" s="9">
         <v>26</v>
@@ -14631,10 +14635,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="18" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B426" s="10" t="s">
         <v>1913</v>
-      </c>
-      <c r="B426" s="10" t="s">
-        <v>1914</v>
       </c>
       <c r="C426" s="9">
         <v>26</v>
@@ -14642,10 +14646,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="18" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B427" s="10" t="s">
         <v>1915</v>
-      </c>
-      <c r="B427" s="10" t="s">
-        <v>1916</v>
       </c>
       <c r="C427" s="9">
         <v>26</v>
@@ -14653,10 +14657,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="27" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B429" s="27" t="s">
         <v>1920</v>
-      </c>
-      <c r="B429" s="27" t="s">
-        <v>1921</v>
       </c>
       <c r="C429" s="3">
         <v>342</v>
@@ -14664,10 +14668,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C431" s="3">
         <v>344</v>
@@ -14675,10 +14679,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="27" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B432" s="27" t="s">
         <v>1980</v>
-      </c>
-      <c r="B432" s="27" t="s">
-        <v>1981</v>
       </c>
       <c r="C432" s="3">
         <v>345</v>
@@ -14686,10 +14690,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="27" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C434" s="3">
         <v>346</v>
@@ -14697,10 +14701,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="27" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C436" s="3">
         <v>347</v>
@@ -14708,10 +14712,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="27" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B437" s="27" t="s">
         <v>1968</v>
-      </c>
-      <c r="B437" s="27" t="s">
-        <v>1969</v>
       </c>
       <c r="C437" s="3">
         <v>348</v>
@@ -14719,10 +14723,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="27" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B439" s="27" t="s">
         <v>1985</v>
-      </c>
-      <c r="B439" s="27" t="s">
-        <v>1986</v>
       </c>
       <c r="C439" s="3">
         <v>351</v>
@@ -14730,10 +14734,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="27" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B440" s="27" t="s">
         <v>1987</v>
-      </c>
-      <c r="B440" s="27" t="s">
-        <v>1988</v>
       </c>
       <c r="C440" s="3">
         <v>352</v>
@@ -14741,10 +14745,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B442" s="27" t="s">
         <v>1996</v>
-      </c>
-      <c r="B442" s="27" t="s">
-        <v>1997</v>
       </c>
       <c r="C442" s="3">
         <v>353</v>
@@ -14763,10 +14767,10 @@
   <dimension ref="A1:O338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J338" sqref="J338"/>
+      <selection pane="bottomRight" activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14948,7 +14952,7 @@
         <v>1513</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -21363,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>803</v>
@@ -24615,7 +24619,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24649,7 +24653,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24683,7 +24687,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24697,7 +24701,7 @@
         <v>1872</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1873</v>
+        <v>2000</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24717,7 +24721,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -25080,7 +25084,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1690</v>
@@ -25929,7 +25933,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26012,7 +26016,7 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D333" s="26" t="s">
         <v>1862</v>
@@ -26027,7 +26031,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26044,10 +26048,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26078,10 +26082,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1922</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1923</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26101,7 +26105,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="16" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -26112,10 +26116,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1925</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1926</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26135,7 +26139,7 @@
         <v>1606176000</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -26146,10 +26150,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26178,10 +26182,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26218,10 +26222,10 @@
   <dimension ref="A1:I893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C873" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D720" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E889" sqref="E889"/>
+      <selection pane="bottomRight" activeCell="E739" sqref="E739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28418,7 +28422,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -29706,7 +29710,7 @@
         <v>1045</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -29715,7 +29719,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30396,7 +30400,7 @@
         <v>1045</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -30810,7 +30814,7 @@
         <v>1045</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -40141,7 +40145,7 @@
         <v>1168</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -40279,7 +40283,7 @@
         <v>1168</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -40417,7 +40421,7 @@
         <v>1168</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -40555,7 +40559,7 @@
         <v>1168</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -40693,7 +40697,7 @@
         <v>1168</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -40831,7 +40835,7 @@
         <v>1168</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -43232,7 +43236,7 @@
         <v>1605</v>
       </c>
       <c r="E737" s="77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F737" s="77">
         <v>1</v>
@@ -43458,17 +43462,17 @@
       <c r="C747" s="19" t="s">
         <v>1143</v>
       </c>
-      <c r="D747" s="77">
-        <v>1</v>
+      <c r="D747" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E747" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F747" s="77">
-        <v>1</v>
-      </c>
-      <c r="G747" s="77" t="s">
-        <v>1504</v>
+        <v>2</v>
+      </c>
+      <c r="G747" s="19" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="748" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44885,7 +44889,7 @@
         <v>1045</v>
       </c>
       <c r="D809" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E809" s="9">
         <v>5</v>
@@ -44954,7 +44958,7 @@
         <v>1045</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E812" s="9">
         <v>5</v>
@@ -45276,7 +45280,7 @@
         <v>1045</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E826" s="9">
         <v>2</v>
@@ -45391,7 +45395,7 @@
         <v>1045</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -45437,7 +45441,7 @@
         <v>1045</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E833" s="9">
         <v>5</v>
@@ -45506,7 +45510,7 @@
         <v>1065</v>
       </c>
       <c r="D836" s="53" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E836" s="9">
         <v>5</v>
@@ -45713,7 +45717,7 @@
         <v>1045</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E845" s="9">
         <v>5</v>
@@ -45765,7 +45769,7 @@
         <v>1045</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E847" s="9">
         <v>2</v>
@@ -45817,7 +45821,7 @@
         <v>1045</v>
       </c>
       <c r="D849" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E849" s="9">
         <v>2</v>
@@ -45863,7 +45867,7 @@
         <v>1045</v>
       </c>
       <c r="D851" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E851" s="9">
         <v>5</v>
@@ -45955,7 +45959,7 @@
         <v>1045</v>
       </c>
       <c r="D855" s="14" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E855" s="14">
         <v>5</v>
@@ -45964,7 +45968,7 @@
         <v>1</v>
       </c>
       <c r="G855" s="14" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45975,19 +45979,19 @@
         <v>339</v>
       </c>
       <c r="C856" s="10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D856" s="10" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E856" s="8">
+        <v>2</v>
+      </c>
+      <c r="F856" s="8">
+        <v>1</v>
+      </c>
+      <c r="G856" s="10" t="s">
         <v>1887</v>
-      </c>
-      <c r="D856" s="10" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E856" s="8">
-        <v>2</v>
-      </c>
-      <c r="F856" s="8">
-        <v>1</v>
-      </c>
-      <c r="G856" s="10" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46001,7 +46005,7 @@
         <v>1174</v>
       </c>
       <c r="D857" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -46010,7 +46014,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46024,7 +46028,7 @@
         <v>1174</v>
       </c>
       <c r="D858" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E858" s="8">
         <v>2</v>
@@ -46033,7 +46037,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46047,16 +46051,16 @@
         <v>1045</v>
       </c>
       <c r="D859" s="111" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E859" s="110">
+        <v>2</v>
+      </c>
+      <c r="F859" s="110">
+        <v>1</v>
+      </c>
+      <c r="G859" s="111" t="s">
         <v>1940</v>
-      </c>
-      <c r="E859" s="110">
-        <v>2</v>
-      </c>
-      <c r="F859" s="110">
-        <v>1</v>
-      </c>
-      <c r="G859" s="111" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46079,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="G860" s="111" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="861" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46093,7 +46097,7 @@
         <v>1045</v>
       </c>
       <c r="D861" s="111" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E861" s="110">
         <v>2</v>
@@ -46125,7 +46129,7 @@
         <v>2</v>
       </c>
       <c r="G862" s="111" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="863" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46139,7 +46143,7 @@
         <v>1045</v>
       </c>
       <c r="D863" s="111" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E863" s="110">
         <v>2</v>
@@ -46148,7 +46152,7 @@
         <v>3</v>
       </c>
       <c r="G863" s="111" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46171,7 +46175,7 @@
         <v>3</v>
       </c>
       <c r="G864" s="111" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46185,7 +46189,7 @@
         <v>1045</v>
       </c>
       <c r="D865" s="110" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E865" s="110">
         <v>2</v>
@@ -46194,7 +46198,7 @@
         <v>4</v>
       </c>
       <c r="G865" s="111" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="866" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46217,7 +46221,7 @@
         <v>4</v>
       </c>
       <c r="G866" s="111" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.2">
@@ -46228,7 +46232,7 @@
         <v>343</v>
       </c>
       <c r="C867" s="53" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D867" s="9">
         <v>1</v>
@@ -46240,7 +46244,7 @@
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
@@ -46251,10 +46255,10 @@
         <v>343</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D868" s="15" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E868" s="8">
         <v>5</v>
@@ -46263,7 +46267,7 @@
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
@@ -46274,7 +46278,7 @@
         <v>343</v>
       </c>
       <c r="C869" s="53" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D869" s="9">
         <v>9</v>
@@ -46286,7 +46290,7 @@
         <v>2</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.2">
@@ -46300,7 +46304,7 @@
         <v>1174</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E870" s="8">
         <v>5</v>
@@ -46309,7 +46313,7 @@
         <v>2</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="871" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46323,7 +46327,7 @@
         <v>1174</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E871" s="14">
         <v>2</v>
@@ -46332,7 +46336,7 @@
         <v>3</v>
       </c>
       <c r="G871" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="872" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46346,7 +46350,7 @@
         <v>1174</v>
       </c>
       <c r="D872" s="15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E872" s="14">
         <v>2</v>
@@ -46355,7 +46359,7 @@
         <v>4</v>
       </c>
       <c r="G872" s="15" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="873" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46369,7 +46373,7 @@
         <v>865</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E873" s="8">
         <v>5</v>
@@ -46415,7 +46419,7 @@
         <v>1045</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
@@ -46461,7 +46465,7 @@
         <v>865</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -46507,7 +46511,7 @@
         <v>1045</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -46553,7 +46557,7 @@
         <v>1168</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -46562,7 +46566,7 @@
         <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.2">
@@ -46576,7 +46580,7 @@
         <v>1045</v>
       </c>
       <c r="D882" s="9" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E882" s="9">
         <v>2</v>
@@ -46585,7 +46589,7 @@
         <v>2</v>
       </c>
       <c r="G882" s="53" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.2">
@@ -46599,7 +46603,7 @@
         <v>1045</v>
       </c>
       <c r="D883" s="53" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E883" s="9">
         <v>2</v>
@@ -46608,7 +46612,7 @@
         <v>3</v>
       </c>
       <c r="G883" s="53" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -46622,7 +46626,7 @@
         <v>1045</v>
       </c>
       <c r="D884" s="53" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E884" s="9">
         <v>2</v>
@@ -46631,7 +46635,7 @@
         <v>4</v>
       </c>
       <c r="G884" s="53" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.2">
@@ -46645,7 +46649,7 @@
         <v>1174</v>
       </c>
       <c r="D885" s="15" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E885" s="8">
         <v>2</v>
@@ -46654,7 +46658,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.2">
@@ -46668,7 +46672,7 @@
         <v>1168</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E886" s="8">
         <v>5</v>
@@ -46677,7 +46681,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.2">
@@ -46700,7 +46704,7 @@
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -46737,7 +46741,7 @@
         <v>1168</v>
       </c>
       <c r="D889" s="15" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E889" s="8">
         <v>5</v>
@@ -46746,7 +46750,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.2">
@@ -46760,7 +46764,7 @@
         <v>1168</v>
       </c>
       <c r="D890" s="15" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E890" s="8">
         <v>2</v>
@@ -46769,7 +46773,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -46780,7 +46784,7 @@
         <v>352</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D891" s="15" t="s">
         <v>1628</v>
@@ -46792,7 +46796,7 @@
         <v>2</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.2">
@@ -46815,7 +46819,7 @@
         <v>3</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.2">
@@ -46826,19 +46830,19 @@
         <v>353</v>
       </c>
       <c r="C893" s="10" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D893" s="15" t="s">
         <v>1998</v>
       </c>
-      <c r="D893" s="15" t="s">
+      <c r="E893" s="8">
+        <v>2</v>
+      </c>
+      <c r="F893" s="8">
+        <v>1</v>
+      </c>
+      <c r="G893" s="10" t="s">
         <v>1999</v>
-      </c>
-      <c r="E893" s="8">
-        <v>2</v>
-      </c>
-      <c r="F893" s="8">
-        <v>1</v>
-      </c>
-      <c r="G893" s="10" t="s">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -47011,7 +47015,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1755</v>
@@ -47057,13 +47061,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -47080,13 +47084,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -47103,13 +47107,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E11">
         <v>2</v>

--- a/config_12.22/permission_server_config.xlsx
+++ b/config_12.22/permission_server_config.xlsx
@@ -26222,10 +26222,10 @@
   <dimension ref="A1:I893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D720" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C720" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E739" sqref="E739"/>
+      <selection pane="bottomRight" activeCell="D746" sqref="D746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43459,8 +43459,8 @@
       <c r="B747" s="77">
         <v>297</v>
       </c>
-      <c r="C747" s="19" t="s">
-        <v>1143</v>
+      <c r="C747" s="77" t="s">
+        <v>1065</v>
       </c>
       <c r="D747" s="19" t="s">
         <v>1605</v>

--- a/config_12.22/permission_server_config.xlsx
+++ b/config_12.22/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="2002">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -26219,13 +26219,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I893"/>
+  <dimension ref="A1:I891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C720" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C717" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D746" sqref="D746"/>
+      <selection pane="bottomRight" activeCell="C738" sqref="C738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43229,20 +43229,20 @@
       <c r="B737" s="77">
         <v>294</v>
       </c>
-      <c r="C737" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D737" s="19" t="s">
-        <v>1605</v>
+      <c r="C737" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D737" s="77">
+        <v>3</v>
       </c>
       <c r="E737" s="77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F737" s="77">
         <v>1</v>
       </c>
-      <c r="G737" s="19" t="s">
-        <v>1634</v>
+      <c r="G737" s="77" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -43250,22 +43250,22 @@
         <v>737</v>
       </c>
       <c r="B738" s="77">
-        <v>294</v>
-      </c>
-      <c r="C738" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D738" s="77">
-        <v>1</v>
+        <v>295</v>
+      </c>
+      <c r="C738" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D738" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E738" s="77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F738" s="77">
         <v>1</v>
       </c>
-      <c r="G738" s="77" t="s">
-        <v>1504</v>
+      <c r="G738" s="19" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
@@ -43273,22 +43273,22 @@
         <v>738</v>
       </c>
       <c r="B739" s="77">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C739" s="19" t="s">
         <v>1143</v>
       </c>
       <c r="D739" s="77">
+        <v>4</v>
+      </c>
+      <c r="E739" s="77">
         <v>3</v>
       </c>
-      <c r="E739" s="77">
-        <v>4</v>
-      </c>
       <c r="F739" s="77">
         <v>1</v>
       </c>
-      <c r="G739" s="77" t="s">
-        <v>1492</v>
+      <c r="G739" s="19" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
@@ -43298,20 +43298,20 @@
       <c r="B740" s="77">
         <v>295</v>
       </c>
-      <c r="C740" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D740" s="19" t="s">
-        <v>1605</v>
+      <c r="C740" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D740" s="77">
+        <v>7</v>
       </c>
       <c r="E740" s="77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F740" s="77">
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1634</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
@@ -43319,22 +43319,22 @@
         <v>740</v>
       </c>
       <c r="B741" s="77">
-        <v>295</v>
-      </c>
-      <c r="C741" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D741" s="77">
-        <v>4</v>
+        <v>296</v>
+      </c>
+      <c r="C741" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D741" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E741" s="77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F741" s="77">
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1665</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
@@ -43342,22 +43342,22 @@
         <v>741</v>
       </c>
       <c r="B742" s="77">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C742" s="19" t="s">
         <v>1143</v>
       </c>
       <c r="D742" s="77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E742" s="77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F742" s="77">
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
@@ -43367,20 +43367,20 @@
       <c r="B743" s="77">
         <v>296</v>
       </c>
-      <c r="C743" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D743" s="19" t="s">
-        <v>1605</v>
+      <c r="C743" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D743" s="77">
+        <v>10</v>
       </c>
       <c r="E743" s="77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F743" s="77">
         <v>1</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1634</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -43388,22 +43388,22 @@
         <v>743</v>
       </c>
       <c r="B744" s="77">
-        <v>296</v>
-      </c>
-      <c r="C744" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D744" s="77">
-        <v>8</v>
+        <v>297</v>
+      </c>
+      <c r="C744" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D744" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E744" s="77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F744" s="77">
         <v>1</v>
       </c>
       <c r="G744" s="19" t="s">
-        <v>1667</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
@@ -43411,91 +43411,91 @@
         <v>744</v>
       </c>
       <c r="B745" s="77">
-        <v>296</v>
-      </c>
-      <c r="C745" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D745" s="77">
-        <v>10</v>
+        <v>297</v>
+      </c>
+      <c r="C745" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D745" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E745" s="77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F745" s="77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G745" s="19" t="s">
-        <v>1668</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" s="8">
         <v>745</v>
       </c>
-      <c r="B746" s="77">
-        <v>297</v>
-      </c>
-      <c r="C746" s="77" t="s">
+      <c r="B746" s="14">
+        <v>298</v>
+      </c>
+      <c r="C746" s="15" t="s">
         <v>1065</v>
       </c>
-      <c r="D746" s="19" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E746" s="77">
-        <v>5</v>
-      </c>
-      <c r="F746" s="77">
-        <v>1</v>
-      </c>
-      <c r="G746" s="19" t="s">
-        <v>1634</v>
+      <c r="D746" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E746" s="14">
+        <v>2</v>
+      </c>
+      <c r="F746" s="14">
+        <v>1</v>
+      </c>
+      <c r="G746" s="15" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" s="8">
         <v>746</v>
       </c>
-      <c r="B747" s="77">
-        <v>297</v>
-      </c>
-      <c r="C747" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D747" s="19" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E747" s="77">
-        <v>2</v>
-      </c>
-      <c r="F747" s="77">
-        <v>2</v>
-      </c>
-      <c r="G747" s="19" t="s">
-        <v>2001</v>
+      <c r="B747" s="8">
+        <v>299</v>
+      </c>
+      <c r="C747" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D747" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="E747" s="8">
+        <v>2</v>
+      </c>
+      <c r="F747" s="8">
+        <v>1</v>
+      </c>
+      <c r="G747" s="10" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="748" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A748" s="8">
         <v>747</v>
       </c>
-      <c r="B748" s="14">
-        <v>298</v>
-      </c>
-      <c r="C748" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D748" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E748" s="14">
-        <v>2</v>
-      </c>
-      <c r="F748" s="14">
-        <v>1</v>
-      </c>
-      <c r="G748" s="15" t="s">
-        <v>1204</v>
+      <c r="B748" s="8">
+        <v>299</v>
+      </c>
+      <c r="C748" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D748" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="E748" s="8">
+        <v>2</v>
+      </c>
+      <c r="F748" s="8">
+        <v>2</v>
+      </c>
+      <c r="G748" s="10" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.2">
@@ -43503,22 +43503,22 @@
         <v>748</v>
       </c>
       <c r="B749" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C749" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D749" s="10" t="s">
-        <v>870</v>
+        <v>1143</v>
+      </c>
+      <c r="D749" s="8">
+        <v>1</v>
       </c>
       <c r="E749" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F749" s="8">
         <v>1</v>
       </c>
       <c r="G749" s="10" t="s">
-        <v>923</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.2">
@@ -43526,45 +43526,45 @@
         <v>749</v>
       </c>
       <c r="B750" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C750" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D750" s="10" t="s">
-        <v>874</v>
+        <v>1143</v>
+      </c>
+      <c r="D750" s="8">
+        <v>3</v>
       </c>
       <c r="E750" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F750" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G750" s="10" t="s">
-        <v>919</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" s="8">
         <v>750</v>
       </c>
-      <c r="B751" s="8">
+      <c r="B751" s="14">
         <v>300</v>
       </c>
-      <c r="C751" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D751" s="8">
-        <v>1</v>
-      </c>
-      <c r="E751" s="8">
-        <v>3</v>
-      </c>
-      <c r="F751" s="8">
-        <v>1</v>
-      </c>
-      <c r="G751" s="10" t="s">
-        <v>1611</v>
+      <c r="C751" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D751" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E751" s="14">
+        <v>5</v>
+      </c>
+      <c r="F751" s="14">
+        <v>1</v>
+      </c>
+      <c r="G751" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.2">
@@ -43572,91 +43572,91 @@
         <v>751</v>
       </c>
       <c r="B752" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C752" s="10" t="s">
-        <v>1143</v>
+        <v>1608</v>
       </c>
       <c r="D752" s="8">
+        <v>4</v>
+      </c>
+      <c r="E752" s="8">
         <v>3</v>
       </c>
-      <c r="E752" s="8">
-        <v>4</v>
-      </c>
       <c r="F752" s="8">
         <v>1</v>
       </c>
       <c r="G752" s="10" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="753" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A753" s="8">
         <v>752</v>
       </c>
-      <c r="B753" s="14">
-        <v>300</v>
-      </c>
-      <c r="C753" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D753" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E753" s="14">
-        <v>5</v>
-      </c>
-      <c r="F753" s="14">
-        <v>1</v>
-      </c>
-      <c r="G753" s="15" t="s">
-        <v>1727</v>
+      <c r="B753" s="8">
+        <v>301</v>
+      </c>
+      <c r="C753" s="10" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D753" s="8">
+        <v>6</v>
+      </c>
+      <c r="E753" s="8">
+        <v>4</v>
+      </c>
+      <c r="F753" s="8">
+        <v>1</v>
+      </c>
+      <c r="G753" s="10" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754" s="8">
         <v>753</v>
       </c>
-      <c r="B754" s="8">
+      <c r="B754" s="14">
         <v>301</v>
       </c>
-      <c r="C754" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D754" s="8">
-        <v>4</v>
-      </c>
-      <c r="E754" s="8">
-        <v>3</v>
-      </c>
-      <c r="F754" s="8">
-        <v>1</v>
-      </c>
-      <c r="G754" s="10" t="s">
-        <v>1493</v>
+      <c r="C754" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D754" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E754" s="14">
+        <v>5</v>
+      </c>
+      <c r="F754" s="14">
+        <v>1</v>
+      </c>
+      <c r="G754" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" s="8">
         <v>754</v>
       </c>
-      <c r="B755" s="8">
-        <v>301</v>
-      </c>
-      <c r="C755" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D755" s="8">
-        <v>6</v>
-      </c>
-      <c r="E755" s="8">
-        <v>4</v>
-      </c>
-      <c r="F755" s="8">
-        <v>1</v>
-      </c>
-      <c r="G755" s="10" t="s">
-        <v>1612</v>
+      <c r="B755" s="14">
+        <v>302</v>
+      </c>
+      <c r="C755" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D755" s="14">
+        <v>7</v>
+      </c>
+      <c r="E755" s="14">
+        <v>3</v>
+      </c>
+      <c r="F755" s="14">
+        <v>1</v>
+      </c>
+      <c r="G755" s="15" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="756" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43664,22 +43664,22 @@
         <v>755</v>
       </c>
       <c r="B756" s="14">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C756" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D756" s="15" t="s">
-        <v>1240</v>
+        <v>1143</v>
+      </c>
+      <c r="D756" s="14">
+        <v>10</v>
       </c>
       <c r="E756" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F756" s="14">
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1727</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="757" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43690,65 +43690,65 @@
         <v>302</v>
       </c>
       <c r="C757" s="15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D757" s="14">
-        <v>7</v>
+        <v>1065</v>
+      </c>
+      <c r="D757" s="15" t="s">
+        <v>1240</v>
       </c>
       <c r="E757" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F757" s="14">
         <v>1</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>1613</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="758" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A758" s="8">
         <v>757</v>
       </c>
-      <c r="B758" s="14">
-        <v>302</v>
-      </c>
-      <c r="C758" s="15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D758" s="14">
-        <v>10</v>
-      </c>
-      <c r="E758" s="14">
-        <v>4</v>
-      </c>
-      <c r="F758" s="14">
-        <v>1</v>
-      </c>
-      <c r="G758" s="15" t="s">
-        <v>1495</v>
+      <c r="B758" s="8">
+        <v>303</v>
+      </c>
+      <c r="C758" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D758" s="10" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E758" s="8">
+        <v>2</v>
+      </c>
+      <c r="F758" s="8">
+        <v>1</v>
+      </c>
+      <c r="G758" s="10" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="759" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A759" s="8">
         <v>758</v>
       </c>
-      <c r="B759" s="14">
-        <v>302</v>
-      </c>
-      <c r="C759" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D759" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E759" s="14">
-        <v>5</v>
-      </c>
-      <c r="F759" s="14">
-        <v>1</v>
-      </c>
-      <c r="G759" s="15" t="s">
-        <v>1727</v>
+      <c r="B759" s="8">
+        <v>303</v>
+      </c>
+      <c r="C759" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D759" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="E759" s="8">
+        <v>2</v>
+      </c>
+      <c r="F759" s="8">
+        <v>2</v>
+      </c>
+      <c r="G759" s="10" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.2">
@@ -43759,19 +43759,19 @@
         <v>303</v>
       </c>
       <c r="C760" s="10" t="s">
-        <v>1065</v>
+        <v>865</v>
       </c>
       <c r="D760" s="10" t="s">
-        <v>1728</v>
+        <v>874</v>
       </c>
       <c r="E760" s="8">
         <v>2</v>
       </c>
       <c r="F760" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G760" s="10" t="s">
-        <v>1204</v>
+        <v>919</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -43779,22 +43779,22 @@
         <v>760</v>
       </c>
       <c r="B761" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D761" s="10" t="s">
-        <v>870</v>
+        <v>1608</v>
+      </c>
+      <c r="D761" s="8">
+        <v>4</v>
       </c>
       <c r="E761" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F761" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G761" s="10" t="s">
-        <v>923</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.2">
@@ -43802,45 +43802,45 @@
         <v>761</v>
       </c>
       <c r="B762" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D762" s="10" t="s">
-        <v>874</v>
+        <v>1608</v>
+      </c>
+      <c r="D762" s="8">
+        <v>10</v>
       </c>
       <c r="E762" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F762" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G762" s="10" t="s">
-        <v>919</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763" s="8">
         <v>762</v>
       </c>
-      <c r="B763" s="8">
+      <c r="B763" s="14">
         <v>304</v>
       </c>
-      <c r="C763" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D763" s="8">
-        <v>4</v>
-      </c>
-      <c r="E763" s="8">
-        <v>3</v>
-      </c>
-      <c r="F763" s="8">
-        <v>1</v>
-      </c>
-      <c r="G763" s="10" t="s">
-        <v>1493</v>
+      <c r="C763" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D763" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E763" s="14">
+        <v>5</v>
+      </c>
+      <c r="F763" s="14">
+        <v>1</v>
+      </c>
+      <c r="G763" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.2">
@@ -43848,45 +43848,45 @@
         <v>763</v>
       </c>
       <c r="B764" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C764" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D764" s="8">
-        <v>10</v>
+        <v>1065</v>
+      </c>
+      <c r="D764" s="10" t="s">
+        <v>1240</v>
       </c>
       <c r="E764" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F764" s="8">
         <v>1</v>
       </c>
       <c r="G764" s="10" t="s">
-        <v>1495</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="765" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A765" s="8">
         <v>764</v>
       </c>
-      <c r="B765" s="14">
-        <v>304</v>
-      </c>
-      <c r="C765" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D765" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E765" s="14">
-        <v>5</v>
-      </c>
-      <c r="F765" s="14">
-        <v>1</v>
-      </c>
-      <c r="G765" s="15" t="s">
-        <v>1727</v>
+      <c r="B765" s="8">
+        <v>305</v>
+      </c>
+      <c r="C765" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D765" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E765" s="8">
+        <v>2</v>
+      </c>
+      <c r="F765" s="8">
+        <v>1</v>
+      </c>
+      <c r="G765" s="10" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.2">
@@ -43897,19 +43897,19 @@
         <v>305</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>1065</v>
+        <v>865</v>
       </c>
       <c r="D766" s="10" t="s">
-        <v>1240</v>
+        <v>870</v>
       </c>
       <c r="E766" s="8">
         <v>2</v>
       </c>
       <c r="F766" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>1204</v>
+        <v>923</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -43929,10 +43929,10 @@
         <v>2</v>
       </c>
       <c r="F767" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
@@ -43946,16 +43946,16 @@
         <v>865</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
       </c>
       <c r="F768" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -43975,10 +43975,10 @@
         <v>2</v>
       </c>
       <c r="F769" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G769" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
@@ -43986,22 +43986,22 @@
         <v>769</v>
       </c>
       <c r="B770" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D770" s="10" t="s">
-        <v>874</v>
+        <v>1143</v>
+      </c>
+      <c r="D770" s="8">
+        <v>1</v>
       </c>
       <c r="E770" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F770" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>919</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -44009,22 +44009,22 @@
         <v>770</v>
       </c>
       <c r="B771" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D771" s="10" t="s">
-        <v>1686</v>
+        <v>1143</v>
+      </c>
+      <c r="D771" s="8">
+        <v>3</v>
       </c>
       <c r="E771" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F771" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1692</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
@@ -44035,42 +44035,42 @@
         <v>306</v>
       </c>
       <c r="C772" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D772" s="8">
-        <v>1</v>
+        <v>1045</v>
+      </c>
+      <c r="D772" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E772" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F772" s="8">
         <v>1</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1611</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773" s="8">
         <v>772</v>
       </c>
-      <c r="B773" s="8">
+      <c r="B773" s="14">
         <v>306</v>
       </c>
-      <c r="C773" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D773" s="8">
-        <v>3</v>
-      </c>
-      <c r="E773" s="8">
-        <v>4</v>
-      </c>
-      <c r="F773" s="8">
-        <v>1</v>
-      </c>
-      <c r="G773" s="10" t="s">
-        <v>1492</v>
+      <c r="C773" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D773" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E773" s="14">
+        <v>5</v>
+      </c>
+      <c r="F773" s="14">
+        <v>1</v>
+      </c>
+      <c r="G773" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.2">
@@ -44078,45 +44078,45 @@
         <v>773</v>
       </c>
       <c r="B774" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C774" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D774" s="10" t="s">
-        <v>1686</v>
+        <v>1608</v>
+      </c>
+      <c r="D774" s="8">
+        <v>4</v>
       </c>
       <c r="E774" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F774" s="8">
         <v>1</v>
       </c>
       <c r="G774" s="10" t="s">
-        <v>1694</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="775" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A775" s="8">
         <v>774</v>
       </c>
-      <c r="B775" s="14">
-        <v>306</v>
-      </c>
-      <c r="C775" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D775" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E775" s="14">
-        <v>5</v>
-      </c>
-      <c r="F775" s="14">
-        <v>1</v>
-      </c>
-      <c r="G775" s="15" t="s">
-        <v>1727</v>
+      <c r="B775" s="8">
+        <v>307</v>
+      </c>
+      <c r="C775" s="10" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D775" s="8">
+        <v>6</v>
+      </c>
+      <c r="E775" s="8">
+        <v>4</v>
+      </c>
+      <c r="F775" s="8">
+        <v>1</v>
+      </c>
+      <c r="G775" s="10" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
@@ -44127,42 +44127,42 @@
         <v>307</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D776" s="8">
-        <v>4</v>
+        <v>1045</v>
+      </c>
+      <c r="D776" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E776" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F776" s="8">
         <v>1</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>1493</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777" s="8">
         <v>776</v>
       </c>
-      <c r="B777" s="8">
+      <c r="B777" s="14">
         <v>307</v>
       </c>
-      <c r="C777" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D777" s="8">
-        <v>6</v>
-      </c>
-      <c r="E777" s="8">
-        <v>4</v>
-      </c>
-      <c r="F777" s="8">
-        <v>1</v>
-      </c>
-      <c r="G777" s="10" t="s">
-        <v>1612</v>
+      <c r="C777" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D777" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E777" s="14">
+        <v>5</v>
+      </c>
+      <c r="F777" s="14">
+        <v>1</v>
+      </c>
+      <c r="G777" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
@@ -44170,114 +44170,114 @@
         <v>777</v>
       </c>
       <c r="B778" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C778" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D778" s="10" t="s">
-        <v>1686</v>
+        <v>1143</v>
+      </c>
+      <c r="D778" s="8">
+        <v>7</v>
       </c>
       <c r="E778" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F778" s="8">
         <v>1</v>
       </c>
       <c r="G778" s="10" t="s">
-        <v>1692</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="779" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A779" s="8">
         <v>778</v>
       </c>
-      <c r="B779" s="14">
-        <v>307</v>
-      </c>
-      <c r="C779" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D779" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E779" s="14">
-        <v>5</v>
-      </c>
-      <c r="F779" s="14">
-        <v>1</v>
-      </c>
-      <c r="G779" s="15" t="s">
-        <v>1727</v>
+      <c r="B779" s="9">
+        <v>308</v>
+      </c>
+      <c r="C779" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D779" s="9">
+        <v>10</v>
+      </c>
+      <c r="E779" s="9">
+        <v>4</v>
+      </c>
+      <c r="F779" s="9">
+        <v>1</v>
+      </c>
+      <c r="G779" s="10" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780" s="8">
         <v>779</v>
       </c>
-      <c r="B780" s="8">
+      <c r="B780" s="14">
         <v>308</v>
       </c>
-      <c r="C780" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D780" s="8">
-        <v>7</v>
-      </c>
-      <c r="E780" s="8">
-        <v>3</v>
-      </c>
-      <c r="F780" s="8">
-        <v>1</v>
-      </c>
-      <c r="G780" s="10" t="s">
-        <v>1613</v>
+      <c r="C780" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D780" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E780" s="14">
+        <v>5</v>
+      </c>
+      <c r="F780" s="14">
+        <v>1</v>
+      </c>
+      <c r="G780" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" s="8">
         <v>780</v>
       </c>
-      <c r="B781" s="9">
+      <c r="B781" s="8">
         <v>308</v>
       </c>
-      <c r="C781" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D781" s="9">
-        <v>10</v>
-      </c>
-      <c r="E781" s="9">
-        <v>4</v>
-      </c>
-      <c r="F781" s="9">
+      <c r="C781" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D781" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E781" s="8">
+        <v>2</v>
+      </c>
+      <c r="F781" s="8">
         <v>1</v>
       </c>
       <c r="G781" s="10" t="s">
-        <v>1495</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="782" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A782" s="8">
         <v>781</v>
       </c>
-      <c r="B782" s="14">
-        <v>308</v>
-      </c>
-      <c r="C782" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D782" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E782" s="14">
-        <v>5</v>
-      </c>
-      <c r="F782" s="14">
-        <v>1</v>
-      </c>
-      <c r="G782" s="15" t="s">
-        <v>1727</v>
+      <c r="B782" s="8">
+        <v>309</v>
+      </c>
+      <c r="C782" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D782" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E782" s="8">
+        <v>2</v>
+      </c>
+      <c r="F782" s="8">
+        <v>1</v>
+      </c>
+      <c r="G782" s="10" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -44285,7 +44285,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C783" s="10" t="s">
         <v>1045</v>
@@ -44294,13 +44294,13 @@
         <v>1686</v>
       </c>
       <c r="E783" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F783" s="8">
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -44308,13 +44308,13 @@
         <v>783</v>
       </c>
       <c r="B784" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1686</v>
+        <v>1729</v>
       </c>
       <c r="E784" s="8">
         <v>2</v>
@@ -44323,7 +44323,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1692</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -44331,7 +44331,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C785" s="10" t="s">
         <v>1045</v>
@@ -44357,19 +44357,19 @@
         <v>311</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>1065</v>
+        <v>865</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1729</v>
+        <v>870</v>
       </c>
       <c r="E786" s="8">
         <v>2</v>
       </c>
       <c r="F786" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1204</v>
+        <v>923</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -44389,7 +44389,7 @@
         <v>5</v>
       </c>
       <c r="F787" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G787" s="10" t="s">
         <v>1687</v>
@@ -44406,16 +44406,16 @@
         <v>865</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E788" s="8">
         <v>2</v>
       </c>
       <c r="F788" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -44435,7 +44435,7 @@
         <v>5</v>
       </c>
       <c r="F789" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G789" s="10" t="s">
         <v>1687</v>
@@ -44446,22 +44446,22 @@
         <v>789</v>
       </c>
       <c r="B790" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D790" s="10" t="s">
-        <v>874</v>
+        <v>1143</v>
+      </c>
+      <c r="D790" s="8">
+        <v>1</v>
       </c>
       <c r="E790" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F790" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>919</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -44469,22 +44469,22 @@
         <v>790</v>
       </c>
       <c r="B791" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D791" s="10" t="s">
-        <v>1686</v>
+        <v>1143</v>
+      </c>
+      <c r="D791" s="8">
+        <v>3</v>
       </c>
       <c r="E791" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F791" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1687</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
@@ -44495,42 +44495,42 @@
         <v>312</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D792" s="8">
-        <v>1</v>
+        <v>1045</v>
+      </c>
+      <c r="D792" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E792" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F792" s="8">
         <v>1</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1504</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" s="8">
         <v>792</v>
       </c>
-      <c r="B793" s="8">
+      <c r="B793" s="14">
         <v>312</v>
       </c>
-      <c r="C793" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D793" s="8">
-        <v>3</v>
-      </c>
-      <c r="E793" s="8">
-        <v>4</v>
-      </c>
-      <c r="F793" s="8">
-        <v>1</v>
-      </c>
-      <c r="G793" s="10" t="s">
-        <v>1492</v>
+      <c r="C793" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D793" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E793" s="14">
+        <v>5</v>
+      </c>
+      <c r="F793" s="14">
+        <v>1</v>
+      </c>
+      <c r="G793" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.2">
@@ -44538,45 +44538,45 @@
         <v>793</v>
       </c>
       <c r="B794" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C794" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D794" s="10" t="s">
-        <v>1686</v>
+        <v>1155</v>
+      </c>
+      <c r="D794" s="8">
+        <v>4</v>
       </c>
       <c r="E794" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F794" s="8">
         <v>1</v>
       </c>
       <c r="G794" s="10" t="s">
-        <v>1687</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="795" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A795" s="8">
         <v>794</v>
       </c>
-      <c r="B795" s="14">
-        <v>312</v>
-      </c>
-      <c r="C795" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D795" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E795" s="14">
-        <v>5</v>
-      </c>
-      <c r="F795" s="14">
-        <v>1</v>
-      </c>
-      <c r="G795" s="15" t="s">
-        <v>1727</v>
+      <c r="B795" s="8">
+        <v>313</v>
+      </c>
+      <c r="C795" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D795" s="8">
+        <v>6</v>
+      </c>
+      <c r="E795" s="8">
+        <v>4</v>
+      </c>
+      <c r="F795" s="8">
+        <v>1</v>
+      </c>
+      <c r="G795" s="10" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -44587,42 +44587,42 @@
         <v>313</v>
       </c>
       <c r="C796" s="10" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D796" s="8">
-        <v>4</v>
+        <v>1045</v>
+      </c>
+      <c r="D796" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E796" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F796" s="8">
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>1493</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" s="8">
         <v>796</v>
       </c>
-      <c r="B797" s="8">
+      <c r="B797" s="14">
         <v>313</v>
       </c>
-      <c r="C797" s="10" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D797" s="8">
-        <v>6</v>
-      </c>
-      <c r="E797" s="8">
-        <v>4</v>
-      </c>
-      <c r="F797" s="8">
-        <v>1</v>
-      </c>
-      <c r="G797" s="10" t="s">
-        <v>1612</v>
+      <c r="C797" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D797" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E797" s="14">
+        <v>5</v>
+      </c>
+      <c r="F797" s="14">
+        <v>1</v>
+      </c>
+      <c r="G797" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
@@ -44630,122 +44630,122 @@
         <v>797</v>
       </c>
       <c r="B798" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C798" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D798" s="10" t="s">
-        <v>1686</v>
+        <v>1144</v>
+      </c>
+      <c r="D798" s="8">
+        <v>7</v>
       </c>
       <c r="E798" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F798" s="8">
         <v>1</v>
       </c>
       <c r="G798" s="10" t="s">
-        <v>1687</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="799" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A799" s="8">
         <v>798</v>
       </c>
-      <c r="B799" s="14">
-        <v>313</v>
-      </c>
-      <c r="C799" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D799" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E799" s="14">
-        <v>5</v>
-      </c>
-      <c r="F799" s="14">
-        <v>1</v>
-      </c>
-      <c r="G799" s="15" t="s">
-        <v>1727</v>
+      <c r="B799" s="9">
+        <v>314</v>
+      </c>
+      <c r="C799" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D799" s="9">
+        <v>10</v>
+      </c>
+      <c r="E799" s="9">
+        <v>4</v>
+      </c>
+      <c r="F799" s="9">
+        <v>1</v>
+      </c>
+      <c r="G799" s="10" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800" s="8">
         <v>799</v>
       </c>
-      <c r="B800" s="8">
+      <c r="B800" s="14">
         <v>314</v>
       </c>
-      <c r="C800" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D800" s="8">
-        <v>7</v>
-      </c>
-      <c r="E800" s="8">
-        <v>3</v>
-      </c>
-      <c r="F800" s="8">
-        <v>1</v>
-      </c>
-      <c r="G800" s="10" t="s">
-        <v>1613</v>
+      <c r="C800" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D800" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E800" s="14">
+        <v>5</v>
+      </c>
+      <c r="F800" s="14">
+        <v>1</v>
+      </c>
+      <c r="G800" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" s="8">
         <v>800</v>
       </c>
-      <c r="B801" s="9">
+      <c r="B801" s="8">
         <v>314</v>
       </c>
-      <c r="C801" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D801" s="9">
-        <v>10</v>
-      </c>
-      <c r="E801" s="9">
-        <v>4</v>
-      </c>
-      <c r="F801" s="9">
+      <c r="C801" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D801" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E801" s="8">
+        <v>5</v>
+      </c>
+      <c r="F801" s="8">
         <v>1</v>
       </c>
       <c r="G801" s="10" t="s">
-        <v>1495</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="802" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A802" s="8">
         <v>801</v>
       </c>
-      <c r="B802" s="14">
-        <v>314</v>
-      </c>
-      <c r="C802" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D802" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E802" s="14">
+      <c r="B802" s="9">
+        <v>315</v>
+      </c>
+      <c r="C802" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D802" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E802" s="8">
         <v>5</v>
       </c>
-      <c r="F802" s="14">
-        <v>1</v>
-      </c>
-      <c r="G802" s="15" t="s">
-        <v>1727</v>
+      <c r="F802" s="8">
+        <v>1</v>
+      </c>
+      <c r="G802" s="10" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803" s="8">
         <v>802</v>
       </c>
-      <c r="B803" s="8">
-        <v>314</v>
+      <c r="B803" s="9">
+        <v>316</v>
       </c>
       <c r="C803" s="10" t="s">
         <v>1045</v>
@@ -44753,14 +44753,14 @@
       <c r="D803" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E803" s="8">
-        <v>5</v>
+      <c r="E803" s="9">
+        <v>2</v>
       </c>
       <c r="F803" s="8">
         <v>1</v>
       </c>
-      <c r="G803" s="10" t="s">
-        <v>1687</v>
+      <c r="G803" s="53" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -44768,7 +44768,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="9">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C804" s="10" t="s">
         <v>1045</v>
@@ -44791,7 +44791,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="9">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C805" s="10" t="s">
         <v>1045</v>
@@ -44814,7 +44814,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C806" s="10" t="s">
         <v>1045</v>
@@ -44837,22 +44837,22 @@
         <v>806</v>
       </c>
       <c r="B807" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C807" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D807" s="10" t="s">
-        <v>1686</v>
+      <c r="D807" s="9" t="s">
+        <v>1950</v>
       </c>
       <c r="E807" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F807" s="8">
         <v>1</v>
       </c>
-      <c r="G807" s="53" t="s">
-        <v>1711</v>
+      <c r="G807" s="9" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -44860,7 +44860,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C808" s="10" t="s">
         <v>1045</v>
@@ -44868,14 +44868,14 @@
       <c r="D808" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E808" s="8">
-        <v>5</v>
+      <c r="E808" s="9">
+        <v>2</v>
       </c>
       <c r="F808" s="8">
         <v>1</v>
       </c>
-      <c r="G808" s="10" t="s">
-        <v>1710</v>
+      <c r="G808" s="53" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44883,13 +44883,13 @@
         <v>808</v>
       </c>
       <c r="B809" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C809" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D809" s="9" t="s">
-        <v>1950</v>
+      <c r="D809" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E809" s="9">
         <v>5</v>
@@ -44898,7 +44898,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="9" t="s">
-        <v>1747</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44906,22 +44906,22 @@
         <v>809</v>
       </c>
       <c r="B810" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C810" s="10" t="s">
         <v>1045</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1686</v>
+        <v>1991</v>
       </c>
       <c r="E810" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F810" s="8">
         <v>1</v>
       </c>
       <c r="G810" s="53" t="s">
-        <v>1711</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44932,19 +44932,19 @@
         <v>321</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D811" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E811" s="9">
-        <v>5</v>
+        <v>878</v>
+      </c>
+      <c r="D811" s="8">
+        <v>0</v>
+      </c>
+      <c r="E811" s="8">
+        <v>2</v>
       </c>
       <c r="F811" s="8">
         <v>1</v>
       </c>
-      <c r="G811" s="9" t="s">
-        <v>1655</v>
+      <c r="G811" s="10" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44952,13 +44952,13 @@
         <v>811</v>
       </c>
       <c r="B812" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C812" s="10" t="s">
         <v>1045</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1991</v>
+        <v>1686</v>
       </c>
       <c r="E812" s="9">
         <v>5</v>
@@ -44966,8 +44966,8 @@
       <c r="F812" s="8">
         <v>1</v>
       </c>
-      <c r="G812" s="53" t="s">
-        <v>1818</v>
+      <c r="G812" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
@@ -44975,22 +44975,22 @@
         <v>812</v>
       </c>
       <c r="B813" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="D813" s="8">
-        <v>0</v>
+        <v>1065</v>
+      </c>
+      <c r="D813" s="10" t="s">
+        <v>1240</v>
       </c>
       <c r="E813" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F813" s="8">
         <v>1</v>
       </c>
       <c r="G813" s="10" t="s">
-        <v>883</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -45001,19 +45001,19 @@
         <v>322</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D814" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E814" s="9">
-        <v>5</v>
+        <v>1143</v>
+      </c>
+      <c r="D814" s="8">
+        <v>4</v>
+      </c>
+      <c r="E814" s="8">
+        <v>3</v>
       </c>
       <c r="F814" s="8">
         <v>1</v>
       </c>
-      <c r="G814" s="9" t="s">
-        <v>1655</v>
+      <c r="G814" s="10" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -45023,20 +45023,20 @@
       <c r="B815" s="9">
         <v>322</v>
       </c>
-      <c r="C815" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D815" s="10" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E815" s="8">
-        <v>5</v>
-      </c>
-      <c r="F815" s="8">
+      <c r="C815" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D815" s="9">
+        <v>10</v>
+      </c>
+      <c r="E815" s="9">
+        <v>4</v>
+      </c>
+      <c r="F815" s="9">
         <v>1</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>1634</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -45044,53 +45044,53 @@
         <v>815</v>
       </c>
       <c r="B816" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D816" s="8">
-        <v>4</v>
-      </c>
-      <c r="E816" s="8">
-        <v>3</v>
+        <v>1045</v>
+      </c>
+      <c r="D816" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E816" s="9">
+        <v>5</v>
       </c>
       <c r="F816" s="8">
         <v>1</v>
       </c>
-      <c r="G816" s="10" t="s">
-        <v>1493</v>
+      <c r="G816" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" s="8">
         <v>816</v>
       </c>
-      <c r="B817" s="9">
-        <v>322</v>
-      </c>
-      <c r="C817" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D817" s="9">
-        <v>10</v>
-      </c>
-      <c r="E817" s="9">
-        <v>4</v>
-      </c>
-      <c r="F817" s="9">
+      <c r="B817" s="8">
+        <v>324</v>
+      </c>
+      <c r="C817" s="10" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D817" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E817" s="8">
+        <v>2</v>
+      </c>
+      <c r="F817" s="8">
         <v>1</v>
       </c>
       <c r="G817" s="10" t="s">
-        <v>1495</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818" s="8">
         <v>817</v>
       </c>
-      <c r="B818" s="9">
-        <v>323</v>
+      <c r="B818" s="8">
+        <v>324</v>
       </c>
       <c r="C818" s="10" t="s">
         <v>1045</v>
@@ -45098,14 +45098,14 @@
       <c r="D818" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E818" s="9">
+      <c r="E818" s="8">
         <v>5</v>
       </c>
       <c r="F818" s="8">
         <v>1</v>
       </c>
-      <c r="G818" s="9" t="s">
-        <v>1655</v>
+      <c r="G818" s="10" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="819" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45116,19 +45116,19 @@
         <v>324</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>1739</v>
+        <v>865</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1740</v>
+        <v>1804</v>
       </c>
       <c r="E819" s="8">
         <v>2</v>
       </c>
       <c r="F819" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>1741</v>
+        <v>923</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -45148,10 +45148,10 @@
         <v>5</v>
       </c>
       <c r="F820" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -45165,16 +45165,16 @@
         <v>865</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1804</v>
+        <v>874</v>
       </c>
       <c r="E821" s="8">
         <v>2</v>
       </c>
       <c r="F821" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -45194,7 +45194,7 @@
         <v>5</v>
       </c>
       <c r="F822" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G822" s="10" t="s">
         <v>1746</v>
@@ -45204,161 +45204,161 @@
       <c r="A823" s="8">
         <v>822</v>
       </c>
-      <c r="B823" s="8">
-        <v>324</v>
+      <c r="B823" s="9">
+        <v>325</v>
       </c>
       <c r="C823" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D823" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="E823" s="8">
-        <v>2</v>
+        <v>1686</v>
+      </c>
+      <c r="E823" s="9">
+        <v>5</v>
       </c>
       <c r="F823" s="8">
-        <v>3</v>
-      </c>
-      <c r="G823" s="10" t="s">
-        <v>919</v>
+        <v>1</v>
+      </c>
+      <c r="G823" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" s="8">
         <v>823</v>
       </c>
-      <c r="B824" s="8">
-        <v>324</v>
+      <c r="B824" s="9">
+        <v>326</v>
       </c>
       <c r="C824" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D824" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E824" s="8">
-        <v>5</v>
+      <c r="D824" s="9" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E824" s="9">
+        <v>2</v>
       </c>
       <c r="F824" s="8">
-        <v>3</v>
-      </c>
-      <c r="G824" s="10" t="s">
-        <v>1746</v>
+        <v>1</v>
+      </c>
+      <c r="G824" s="9" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825" s="8">
         <v>824</v>
       </c>
-      <c r="B825" s="9">
-        <v>325</v>
-      </c>
-      <c r="C825" s="10" t="s">
+      <c r="B825" s="14">
+        <v>327</v>
+      </c>
+      <c r="C825" s="15" t="s">
         <v>1045</v>
       </c>
-      <c r="D825" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E825" s="9">
-        <v>5</v>
-      </c>
-      <c r="F825" s="8">
-        <v>1</v>
-      </c>
-      <c r="G825" s="9" t="s">
-        <v>1655</v>
+      <c r="D825" s="15" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E825" s="14">
+        <v>2</v>
+      </c>
+      <c r="F825" s="14">
+        <v>1</v>
+      </c>
+      <c r="G825" s="15" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" s="8">
         <v>825</v>
       </c>
-      <c r="B826" s="9">
-        <v>326</v>
+      <c r="B826" s="8">
+        <v>327</v>
       </c>
       <c r="C826" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D826" s="9" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E826" s="9">
+      <c r="D826" s="10" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E826" s="8">
         <v>2</v>
       </c>
       <c r="F826" s="8">
-        <v>1</v>
-      </c>
-      <c r="G826" s="9" t="s">
-        <v>1747</v>
+        <v>2</v>
+      </c>
+      <c r="G826" s="10" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="827" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A827" s="8">
         <v>826</v>
       </c>
-      <c r="B827" s="14">
+      <c r="B827" s="8">
         <v>327</v>
       </c>
-      <c r="C827" s="15" t="s">
+      <c r="C827" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D827" s="15" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E827" s="14">
-        <v>2</v>
-      </c>
-      <c r="F827" s="14">
-        <v>1</v>
-      </c>
-      <c r="G827" s="15" t="s">
-        <v>1819</v>
+      <c r="D827" s="10" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E827" s="8">
+        <v>2</v>
+      </c>
+      <c r="F827" s="8">
+        <v>3</v>
+      </c>
+      <c r="G827" s="10" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828" s="8">
         <v>827</v>
       </c>
-      <c r="B828" s="8">
-        <v>327</v>
-      </c>
-      <c r="C828" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D828" s="10" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E828" s="8">
-        <v>2</v>
-      </c>
-      <c r="F828" s="8">
-        <v>2</v>
-      </c>
-      <c r="G828" s="10" t="s">
-        <v>1821</v>
+      <c r="B828" s="9">
+        <v>328</v>
+      </c>
+      <c r="C828" s="53" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D828" s="9" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E828" s="9">
+        <v>5</v>
+      </c>
+      <c r="F828" s="9">
+        <v>1</v>
+      </c>
+      <c r="G828" s="9" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" s="8">
         <v>828</v>
       </c>
-      <c r="B829" s="8">
-        <v>327</v>
+      <c r="B829" s="9">
+        <v>328</v>
       </c>
       <c r="C829" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D829" s="10" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E829" s="8">
-        <v>2</v>
-      </c>
-      <c r="F829" s="8">
-        <v>3</v>
-      </c>
-      <c r="G829" s="10" t="s">
-        <v>1630</v>
+      <c r="D829" s="9" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E829" s="9">
+        <v>5</v>
+      </c>
+      <c r="F829" s="9">
+        <v>1</v>
+      </c>
+      <c r="G829" s="53" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -45366,10 +45366,10 @@
         <v>829</v>
       </c>
       <c r="B830" s="9">
-        <v>328</v>
-      </c>
-      <c r="C830" s="53" t="s">
-        <v>1837</v>
+        <v>329</v>
+      </c>
+      <c r="C830" s="9" t="s">
+        <v>897</v>
       </c>
       <c r="D830" s="9" t="s">
         <v>1763</v>
@@ -45389,7 +45389,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C831" s="10" t="s">
         <v>1045</v>
@@ -45404,7 +45404,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="53" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -45412,22 +45412,22 @@
         <v>831</v>
       </c>
       <c r="B832" s="9">
-        <v>329</v>
-      </c>
-      <c r="C832" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="D832" s="9" t="s">
-        <v>1763</v>
+        <v>330</v>
+      </c>
+      <c r="C832" s="53" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D832" s="9">
+        <v>1</v>
       </c>
       <c r="E832" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F832" s="9">
         <v>1</v>
       </c>
-      <c r="G832" s="9" t="s">
-        <v>1757</v>
+      <c r="G832" s="53" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -45435,22 +45435,22 @@
         <v>832</v>
       </c>
       <c r="B833" s="9">
-        <v>329</v>
-      </c>
-      <c r="C833" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D833" s="9" t="s">
-        <v>1950</v>
+        <v>330</v>
+      </c>
+      <c r="C833" s="53" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D833" s="9">
+        <v>3</v>
       </c>
       <c r="E833" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F833" s="9">
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1833</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -45461,19 +45461,19 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D834" s="9">
-        <v>1</v>
+        <v>1065</v>
+      </c>
+      <c r="D834" s="53" t="s">
+        <v>1884</v>
       </c>
       <c r="E834" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F834" s="9">
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1795</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -45483,20 +45483,20 @@
       <c r="B835" s="9">
         <v>330</v>
       </c>
-      <c r="C835" s="53" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D835" s="9">
-        <v>3</v>
+      <c r="C835" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D835" s="10" t="s">
+        <v>1804</v>
       </c>
       <c r="E835" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F835" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -45506,20 +45506,20 @@
       <c r="B836" s="9">
         <v>330</v>
       </c>
-      <c r="C836" s="53" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D836" s="53" t="s">
-        <v>1884</v>
+      <c r="C836" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D836" s="9" t="s">
+        <v>866</v>
       </c>
       <c r="E836" s="9">
         <v>5</v>
       </c>
       <c r="F836" s="9">
-        <v>1</v>
-      </c>
-      <c r="G836" s="53" t="s">
-        <v>1808</v>
+        <v>2</v>
+      </c>
+      <c r="G836" s="9" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -45529,20 +45529,20 @@
       <c r="B837" s="9">
         <v>330</v>
       </c>
-      <c r="C837" s="10" t="s">
+      <c r="C837" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="D837" s="10" t="s">
-        <v>1804</v>
+      <c r="D837" s="9" t="s">
+        <v>874</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
       </c>
       <c r="F837" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G837" s="53" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -45556,13 +45556,13 @@
         <v>865</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>866</v>
+        <v>1867</v>
       </c>
       <c r="E838" s="9">
         <v>5</v>
       </c>
       <c r="F838" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G838" s="9" t="s">
         <v>1807</v>
@@ -45573,22 +45573,22 @@
         <v>838</v>
       </c>
       <c r="B839" s="9">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C839" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="D839" s="9" t="s">
-        <v>874</v>
+        <v>878</v>
+      </c>
+      <c r="D839" s="9">
+        <v>4</v>
       </c>
       <c r="E839" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F839" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G839" s="53" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -45596,22 +45596,22 @@
         <v>839</v>
       </c>
       <c r="B840" s="9">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C840" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="D840" s="9" t="s">
-        <v>1867</v>
+        <v>878</v>
+      </c>
+      <c r="D840" s="9">
+        <v>10</v>
       </c>
       <c r="E840" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F840" s="9">
-        <v>3</v>
-      </c>
-      <c r="G840" s="9" t="s">
-        <v>1807</v>
+        <v>1</v>
+      </c>
+      <c r="G840" s="53" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -45622,19 +45622,19 @@
         <v>331</v>
       </c>
       <c r="C841" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="D841" s="9">
-        <v>4</v>
+        <v>1065</v>
+      </c>
+      <c r="D841" s="9" t="s">
+        <v>866</v>
       </c>
       <c r="E841" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F841" s="9">
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -45642,22 +45642,22 @@
         <v>841</v>
       </c>
       <c r="B842" s="9">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C842" s="9" t="s">
         <v>878</v>
       </c>
       <c r="D842" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E842" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F842" s="9">
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -45665,13 +45665,13 @@
         <v>842</v>
       </c>
       <c r="B843" s="9">
-        <v>331</v>
-      </c>
-      <c r="C843" s="9" t="s">
-        <v>1065</v>
+        <v>333</v>
+      </c>
+      <c r="C843" s="10" t="s">
+        <v>1045</v>
       </c>
       <c r="D843" s="9" t="s">
-        <v>866</v>
+        <v>1950</v>
       </c>
       <c r="E843" s="9">
         <v>5</v>
@@ -45680,7 +45680,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1799</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -45688,13 +45688,13 @@
         <v>843</v>
       </c>
       <c r="B844" s="9">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C844" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="D844" s="9">
-        <v>0</v>
+        <v>865</v>
+      </c>
+      <c r="D844" s="9" t="s">
+        <v>870</v>
       </c>
       <c r="E844" s="9">
         <v>2</v>
@@ -45702,8 +45702,8 @@
       <c r="F844" s="9">
         <v>1</v>
       </c>
-      <c r="G844" s="53" t="s">
-        <v>1817</v>
+      <c r="G844" s="9" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45711,7 +45711,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="9">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C845" s="10" t="s">
         <v>1045</v>
@@ -45720,13 +45720,13 @@
         <v>1950</v>
       </c>
       <c r="E845" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F845" s="9">
         <v>1</v>
       </c>
-      <c r="G845" s="53" t="s">
-        <v>1833</v>
+      <c r="G845" s="9" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -45734,13 +45734,13 @@
         <v>845</v>
       </c>
       <c r="B846" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C846" s="9" t="s">
         <v>865</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -45748,8 +45748,8 @@
       <c r="F846" s="9">
         <v>1</v>
       </c>
-      <c r="G846" s="9" t="s">
-        <v>871</v>
+      <c r="G846" s="53" t="s">
+        <v>875</v>
       </c>
       <c r="H846" s="9" t="s">
         <v>872</v>
@@ -45763,7 +45763,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C847" s="10" t="s">
         <v>1045</v>
@@ -45785,23 +45785,23 @@
       <c r="A848" s="8">
         <v>847</v>
       </c>
-      <c r="B848" s="9">
-        <v>335</v>
-      </c>
-      <c r="C848" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="D848" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="E848" s="9">
-        <v>2</v>
-      </c>
-      <c r="F848" s="9">
-        <v>1</v>
-      </c>
-      <c r="G848" s="53" t="s">
-        <v>875</v>
+      <c r="B848" s="98">
+        <v>336</v>
+      </c>
+      <c r="C848" s="98" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D848" s="99" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E848" s="98">
+        <v>5</v>
+      </c>
+      <c r="F848" s="98">
+        <v>1</v>
+      </c>
+      <c r="G848" s="99" t="s">
+        <v>1847</v>
       </c>
       <c r="H848" s="9" t="s">
         <v>876</v>
@@ -45815,7 +45815,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C849" s="10" t="s">
         <v>1045</v>
@@ -45824,7 +45824,7 @@
         <v>1950</v>
       </c>
       <c r="E849" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F849" s="9">
         <v>1</v>
@@ -45837,46 +45837,46 @@
       <c r="A850" s="8">
         <v>849</v>
       </c>
-      <c r="B850" s="98">
-        <v>336</v>
-      </c>
-      <c r="C850" s="98" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D850" s="99" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E850" s="98">
-        <v>5</v>
-      </c>
-      <c r="F850" s="98">
-        <v>1</v>
-      </c>
-      <c r="G850" s="99" t="s">
-        <v>1847</v>
+      <c r="B850" s="106">
+        <v>337</v>
+      </c>
+      <c r="C850" s="107" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D850" s="107" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E850" s="106">
+        <v>2</v>
+      </c>
+      <c r="F850" s="106">
+        <v>1</v>
+      </c>
+      <c r="G850" s="107" t="s">
+        <v>1864</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A851" s="8">
         <v>850</v>
       </c>
-      <c r="B851" s="9">
-        <v>336</v>
-      </c>
-      <c r="C851" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D851" s="9" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E851" s="9">
-        <v>5</v>
-      </c>
-      <c r="F851" s="9">
-        <v>1</v>
-      </c>
-      <c r="G851" s="9" t="s">
-        <v>1846</v>
+      <c r="B851" s="106">
+        <v>337</v>
+      </c>
+      <c r="C851" s="106" t="s">
+        <v>893</v>
+      </c>
+      <c r="D851" s="106">
+        <v>1604968200</v>
+      </c>
+      <c r="E851" s="106">
+        <v>3</v>
+      </c>
+      <c r="F851" s="106">
+        <v>1</v>
+      </c>
+      <c r="G851" s="107" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45886,11 +45886,11 @@
       <c r="B852" s="106">
         <v>337</v>
       </c>
-      <c r="C852" s="107" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D852" s="107" t="s">
-        <v>1863</v>
+      <c r="C852" s="106" t="s">
+        <v>865</v>
+      </c>
+      <c r="D852" s="106" t="s">
+        <v>866</v>
       </c>
       <c r="E852" s="106">
         <v>2</v>
@@ -45898,77 +45898,77 @@
       <c r="F852" s="106">
         <v>1</v>
       </c>
-      <c r="G852" s="107" t="s">
-        <v>1864</v>
+      <c r="G852" s="106" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A853" s="8">
         <v>852</v>
       </c>
-      <c r="B853" s="106">
-        <v>337</v>
-      </c>
-      <c r="C853" s="106" t="s">
-        <v>893</v>
-      </c>
-      <c r="D853" s="106">
-        <v>1604968200</v>
-      </c>
-      <c r="E853" s="106">
-        <v>3</v>
-      </c>
-      <c r="F853" s="106">
-        <v>1</v>
-      </c>
-      <c r="G853" s="107" t="s">
-        <v>1865</v>
+      <c r="B853" s="14">
+        <v>338</v>
+      </c>
+      <c r="C853" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D853" s="14" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E853" s="14">
+        <v>5</v>
+      </c>
+      <c r="F853" s="14">
+        <v>1</v>
+      </c>
+      <c r="G853" s="14" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A854" s="8">
         <v>853</v>
       </c>
-      <c r="B854" s="106">
-        <v>337</v>
-      </c>
-      <c r="C854" s="106" t="s">
-        <v>865</v>
-      </c>
-      <c r="D854" s="106" t="s">
-        <v>866</v>
-      </c>
-      <c r="E854" s="106">
-        <v>2</v>
-      </c>
-      <c r="F854" s="106">
-        <v>1</v>
-      </c>
-      <c r="G854" s="106" t="s">
-        <v>1868</v>
+      <c r="B854" s="8">
+        <v>339</v>
+      </c>
+      <c r="C854" s="10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D854" s="10" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E854" s="8">
+        <v>2</v>
+      </c>
+      <c r="F854" s="8">
+        <v>1</v>
+      </c>
+      <c r="G854" s="10" t="s">
+        <v>1887</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A855" s="8">
         <v>854</v>
       </c>
-      <c r="B855" s="14">
-        <v>338</v>
-      </c>
-      <c r="C855" s="14" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D855" s="14" t="s">
+      <c r="B855" s="8">
+        <v>340</v>
+      </c>
+      <c r="C855" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D855" s="10" t="s">
         <v>1950</v>
       </c>
-      <c r="E855" s="14">
+      <c r="E855" s="8">
         <v>5</v>
       </c>
-      <c r="F855" s="14">
-        <v>1</v>
-      </c>
-      <c r="G855" s="14" t="s">
-        <v>1877</v>
+      <c r="F855" s="8">
+        <v>1</v>
+      </c>
+      <c r="G855" s="10" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45976,13 +45976,13 @@
         <v>855</v>
       </c>
       <c r="B856" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>1886</v>
+        <v>1174</v>
       </c>
       <c r="D856" s="10" t="s">
-        <v>1885</v>
+        <v>1950</v>
       </c>
       <c r="E856" s="8">
         <v>2</v>
@@ -45991,53 +45991,53 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1887</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A857" s="8">
         <v>856</v>
       </c>
-      <c r="B857" s="8">
-        <v>340</v>
-      </c>
-      <c r="C857" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D857" s="10" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E857" s="8">
-        <v>5</v>
-      </c>
-      <c r="F857" s="8">
-        <v>1</v>
-      </c>
-      <c r="G857" s="10" t="s">
-        <v>1927</v>
+      <c r="B857" s="110">
+        <v>342</v>
+      </c>
+      <c r="C857" s="111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D857" s="111" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E857" s="110">
+        <v>2</v>
+      </c>
+      <c r="F857" s="110">
+        <v>1</v>
+      </c>
+      <c r="G857" s="111" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A858" s="8">
         <v>857</v>
       </c>
-      <c r="B858" s="8">
-        <v>341</v>
-      </c>
-      <c r="C858" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D858" s="10" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E858" s="8">
-        <v>2</v>
-      </c>
-      <c r="F858" s="8">
-        <v>1</v>
-      </c>
-      <c r="G858" s="10" t="s">
-        <v>1938</v>
+      <c r="B858" s="110">
+        <v>342</v>
+      </c>
+      <c r="C858" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D858" s="110">
+        <v>1</v>
+      </c>
+      <c r="E858" s="110">
+        <v>3</v>
+      </c>
+      <c r="F858" s="110">
+        <v>1</v>
+      </c>
+      <c r="G858" s="111" t="s">
+        <v>1930</v>
       </c>
     </row>
     <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46051,16 +46051,16 @@
         <v>1045</v>
       </c>
       <c r="D859" s="111" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="E859" s="110">
         <v>2</v>
       </c>
       <c r="F859" s="110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G859" s="111" t="s">
-        <v>1940</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46080,7 +46080,7 @@
         <v>3</v>
       </c>
       <c r="F860" s="110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G860" s="111" t="s">
         <v>1930</v>
@@ -46097,16 +46097,16 @@
         <v>1045</v>
       </c>
       <c r="D861" s="111" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="E861" s="110">
         <v>2</v>
       </c>
       <c r="F861" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G861" s="111" t="s">
-        <v>1693</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="862" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46126,7 +46126,7 @@
         <v>3</v>
       </c>
       <c r="F862" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G862" s="111" t="s">
         <v>1930</v>
@@ -46139,20 +46139,20 @@
       <c r="B863" s="110">
         <v>342</v>
       </c>
-      <c r="C863" s="111" t="s">
+      <c r="C863" s="110" t="s">
         <v>1045</v>
       </c>
-      <c r="D863" s="111" t="s">
-        <v>1937</v>
+      <c r="D863" s="110" t="s">
+        <v>1950</v>
       </c>
       <c r="E863" s="110">
         <v>2</v>
       </c>
       <c r="F863" s="110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G863" s="111" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46172,56 +46172,56 @@
         <v>3</v>
       </c>
       <c r="F864" s="110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G864" s="111" t="s">
-        <v>1930</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A865" s="8">
         <v>864</v>
       </c>
-      <c r="B865" s="110">
-        <v>342</v>
-      </c>
-      <c r="C865" s="110" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D865" s="110" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E865" s="110">
-        <v>2</v>
-      </c>
-      <c r="F865" s="110">
-        <v>4</v>
-      </c>
-      <c r="G865" s="111" t="s">
-        <v>1930</v>
+      <c r="B865" s="9">
+        <v>343</v>
+      </c>
+      <c r="C865" s="53" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D865" s="9">
+        <v>1</v>
+      </c>
+      <c r="E865" s="9">
+        <v>3</v>
+      </c>
+      <c r="F865" s="9">
+        <v>1</v>
+      </c>
+      <c r="G865" s="10" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="866" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A866" s="8">
         <v>865</v>
       </c>
-      <c r="B866" s="110">
-        <v>342</v>
-      </c>
-      <c r="C866" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D866" s="110">
-        <v>1</v>
-      </c>
-      <c r="E866" s="110">
-        <v>3</v>
-      </c>
-      <c r="F866" s="110">
-        <v>4</v>
-      </c>
-      <c r="G866" s="111" t="s">
-        <v>1941</v>
+      <c r="B866" s="9">
+        <v>343</v>
+      </c>
+      <c r="C866" s="10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D866" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E866" s="8">
+        <v>5</v>
+      </c>
+      <c r="F866" s="8">
+        <v>1</v>
+      </c>
+      <c r="G866" s="10" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.2">
@@ -46232,19 +46232,19 @@
         <v>343</v>
       </c>
       <c r="C867" s="53" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
       <c r="D867" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E867" s="9">
         <v>3</v>
       </c>
       <c r="F867" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
@@ -46255,111 +46255,111 @@
         <v>343</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>1926</v>
+        <v>1174</v>
       </c>
       <c r="D868" s="15" t="s">
-        <v>1928</v>
+        <v>1955</v>
       </c>
       <c r="E868" s="8">
         <v>5</v>
       </c>
       <c r="F868" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A869" s="8">
         <v>868</v>
       </c>
-      <c r="B869" s="9">
+      <c r="B869" s="14">
         <v>343</v>
       </c>
-      <c r="C869" s="53" t="s">
-        <v>1933</v>
-      </c>
-      <c r="D869" s="9">
-        <v>9</v>
-      </c>
-      <c r="E869" s="9">
+      <c r="C869" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D869" s="15" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E869" s="14">
+        <v>2</v>
+      </c>
+      <c r="F869" s="14">
         <v>3</v>
       </c>
-      <c r="F869" s="9">
-        <v>2</v>
-      </c>
-      <c r="G869" s="10" t="s">
-        <v>1944</v>
+      <c r="G869" s="15" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A870" s="8">
         <v>869</v>
       </c>
-      <c r="B870" s="9">
+      <c r="B870" s="14">
         <v>343</v>
       </c>
-      <c r="C870" s="10" t="s">
+      <c r="C870" s="15" t="s">
         <v>1174</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E870" s="8">
-        <v>5</v>
-      </c>
-      <c r="F870" s="8">
-        <v>2</v>
-      </c>
-      <c r="G870" s="10" t="s">
-        <v>1934</v>
+        <v>1950</v>
+      </c>
+      <c r="E870" s="14">
+        <v>2</v>
+      </c>
+      <c r="F870" s="14">
+        <v>4</v>
+      </c>
+      <c r="G870" s="15" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="871" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A871" s="8">
         <v>870</v>
       </c>
-      <c r="B871" s="14">
-        <v>343</v>
-      </c>
-      <c r="C871" s="15" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D871" s="15" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E871" s="14">
-        <v>2</v>
-      </c>
-      <c r="F871" s="14">
-        <v>3</v>
-      </c>
-      <c r="G871" s="15" t="s">
-        <v>1932</v>
+      <c r="B871" s="8">
+        <v>344</v>
+      </c>
+      <c r="C871" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D871" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E871" s="8">
+        <v>5</v>
+      </c>
+      <c r="F871" s="8">
+        <v>1</v>
+      </c>
+      <c r="G871" s="10" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="872" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A872" s="8">
         <v>871</v>
       </c>
-      <c r="B872" s="14">
-        <v>343</v>
-      </c>
-      <c r="C872" s="15" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D872" s="15" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E872" s="14">
-        <v>2</v>
-      </c>
-      <c r="F872" s="14">
-        <v>4</v>
-      </c>
-      <c r="G872" s="15" t="s">
-        <v>1935</v>
+      <c r="B872" s="8">
+        <v>344</v>
+      </c>
+      <c r="C872" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D872" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E872" s="8">
+        <v>2</v>
+      </c>
+      <c r="F872" s="8">
+        <v>1</v>
+      </c>
+      <c r="G872" s="10" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="873" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46370,19 +46370,19 @@
         <v>344</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E873" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F873" s="8">
         <v>1</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1012</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="874" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46393,19 +46393,19 @@
         <v>344</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D874" s="10" t="s">
-        <v>1013</v>
+        <v>912</v>
+      </c>
+      <c r="D874" s="8">
+        <v>600</v>
       </c>
       <c r="E874" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F874" s="8">
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="875" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46413,13 +46413,13 @@
         <v>874</v>
       </c>
       <c r="B875" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
@@ -46428,7 +46428,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1092</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="876" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46436,22 +46436,22 @@
         <v>875</v>
       </c>
       <c r="B876" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D876" s="8">
-        <v>600</v>
+        <v>865</v>
+      </c>
+      <c r="D876" s="10" t="s">
+        <v>1013</v>
       </c>
       <c r="E876" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="877" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46462,10 +46462,10 @@
         <v>345</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1981</v>
+        <v>1964</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -46474,7 +46474,7 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1016</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="878" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46485,33 +46485,33 @@
         <v>345</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D878" s="10" t="s">
-        <v>1013</v>
+        <v>912</v>
+      </c>
+      <c r="D878" s="8">
+        <v>600</v>
       </c>
       <c r="E878" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F878" s="8">
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="879" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A879" s="8">
         <v>878</v>
       </c>
-      <c r="B879" s="8">
-        <v>345</v>
+      <c r="B879" s="9">
+        <v>346</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D879" s="10" t="s">
-        <v>1964</v>
+        <v>1168</v>
+      </c>
+      <c r="D879" s="15" t="s">
+        <v>1953</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -46520,30 +46520,30 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1081</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="880" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A880" s="8">
         <v>879</v>
       </c>
-      <c r="B880" s="8">
-        <v>345</v>
-      </c>
-      <c r="C880" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D880" s="8">
-        <v>600</v>
-      </c>
-      <c r="E880" s="8">
-        <v>3</v>
-      </c>
-      <c r="F880" s="8">
-        <v>1</v>
-      </c>
-      <c r="G880" s="10" t="s">
-        <v>1015</v>
+      <c r="B880" s="9">
+        <v>346</v>
+      </c>
+      <c r="C880" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D880" s="9" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E880" s="9">
+        <v>2</v>
+      </c>
+      <c r="F880" s="9">
+        <v>2</v>
+      </c>
+      <c r="G880" s="53" t="s">
+        <v>1960</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.2">
@@ -46553,20 +46553,20 @@
       <c r="B881" s="9">
         <v>346</v>
       </c>
-      <c r="C881" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D881" s="15" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E881" s="8">
-        <v>2</v>
-      </c>
-      <c r="F881" s="8">
-        <v>1</v>
-      </c>
-      <c r="G881" s="10" t="s">
-        <v>1959</v>
+      <c r="C881" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D881" s="53" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E881" s="9">
+        <v>2</v>
+      </c>
+      <c r="F881" s="9">
+        <v>3</v>
+      </c>
+      <c r="G881" s="53" t="s">
+        <v>1961</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.2">
@@ -46579,17 +46579,17 @@
       <c r="C882" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="D882" s="9" t="s">
-        <v>1954</v>
+      <c r="D882" s="53" t="s">
+        <v>1957</v>
       </c>
       <c r="E882" s="9">
         <v>2</v>
       </c>
       <c r="F882" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G882" s="53" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.2">
@@ -46597,22 +46597,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="9">
-        <v>346</v>
-      </c>
-      <c r="C883" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D883" s="53" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E883" s="9">
-        <v>2</v>
-      </c>
-      <c r="F883" s="9">
-        <v>3</v>
-      </c>
-      <c r="G883" s="53" t="s">
-        <v>1961</v>
+        <v>347</v>
+      </c>
+      <c r="C883" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D883" s="15" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E883" s="8">
+        <v>2</v>
+      </c>
+      <c r="F883" s="8">
+        <v>1</v>
+      </c>
+      <c r="G883" s="10" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -46620,22 +46620,22 @@
         <v>883</v>
       </c>
       <c r="B884" s="9">
-        <v>346</v>
-      </c>
-      <c r="C884" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D884" s="53" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E884" s="9">
-        <v>2</v>
-      </c>
-      <c r="F884" s="9">
-        <v>4</v>
-      </c>
-      <c r="G884" s="53" t="s">
-        <v>1962</v>
+        <v>348</v>
+      </c>
+      <c r="C884" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D884" s="15" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E884" s="8">
+        <v>5</v>
+      </c>
+      <c r="F884" s="8">
+        <v>1</v>
+      </c>
+      <c r="G884" s="10" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.2">
@@ -46643,13 +46643,13 @@
         <v>884</v>
       </c>
       <c r="B885" s="9">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C885" s="10" t="s">
         <v>1174</v>
       </c>
       <c r="D885" s="15" t="s">
-        <v>1955</v>
+        <v>1628</v>
       </c>
       <c r="E885" s="8">
         <v>2</v>
@@ -46658,7 +46658,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1934</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.2">
@@ -46666,22 +46666,22 @@
         <v>885</v>
       </c>
       <c r="B886" s="9">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1955</v>
+        <v>1857</v>
       </c>
       <c r="E886" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F886" s="8">
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1934</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.2">
@@ -46689,22 +46689,22 @@
         <v>886</v>
       </c>
       <c r="B887" s="9">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D887" s="15" t="s">
-        <v>1628</v>
+        <v>1946</v>
       </c>
       <c r="E887" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F887" s="8">
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1973</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -46712,13 +46712,13 @@
         <v>887</v>
       </c>
       <c r="B888" s="9">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1857</v>
+        <v>1946</v>
       </c>
       <c r="E888" s="8">
         <v>2</v>
@@ -46727,7 +46727,7 @@
         <v>1</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1539</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.2">
@@ -46735,22 +46735,22 @@
         <v>888</v>
       </c>
       <c r="B889" s="9">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>1168</v>
+        <v>1988</v>
       </c>
       <c r="D889" s="15" t="s">
-        <v>1946</v>
+        <v>1628</v>
       </c>
       <c r="E889" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F889" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1959</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.2">
@@ -46764,16 +46764,16 @@
         <v>1168</v>
       </c>
       <c r="D890" s="15" t="s">
-        <v>1946</v>
+        <v>1857</v>
       </c>
       <c r="E890" s="8">
         <v>2</v>
       </c>
       <c r="F890" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1959</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -46781,67 +46781,21 @@
         <v>890</v>
       </c>
       <c r="B891" s="9">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="D891" s="15" t="s">
-        <v>1628</v>
+        <v>1998</v>
       </c>
       <c r="E891" s="8">
         <v>2</v>
       </c>
       <c r="F891" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A892" s="8">
-        <v>891</v>
-      </c>
-      <c r="B892" s="9">
-        <v>352</v>
-      </c>
-      <c r="C892" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D892" s="15" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E892" s="8">
-        <v>2</v>
-      </c>
-      <c r="F892" s="8">
-        <v>3</v>
-      </c>
-      <c r="G892" s="10" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A893" s="9">
-        <v>892</v>
-      </c>
-      <c r="B893" s="9">
-        <v>353</v>
-      </c>
-      <c r="C893" s="10" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D893" s="15" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E893" s="8">
-        <v>2</v>
-      </c>
-      <c r="F893" s="8">
-        <v>1</v>
-      </c>
-      <c r="G893" s="10" t="s">
         <v>1999</v>
       </c>
     </row>

--- a/config_12.22/permission_server_config.xlsx
+++ b/config_12.22/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="2004">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9298,6 +9298,14 @@
   </si>
   <si>
     <t>是新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_cpl_jjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10126,11 +10134,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q442"/>
+  <dimension ref="A1:Q444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A439" sqref="A439:C439"/>
+      <selection pane="bottomLeft" activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14752,6 +14760,17 @@
       </c>
       <c r="C442" s="3">
         <v>353</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C444" s="3">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -26219,13 +26238,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I891"/>
+  <dimension ref="A1:I893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C717" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C872" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C738" sqref="C738"/>
+      <selection pane="bottomRight" activeCell="B892" sqref="B892:B893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46797,6 +46816,52 @@
       </c>
       <c r="G891" s="10" t="s">
         <v>1999</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A892" s="8">
+        <v>891</v>
+      </c>
+      <c r="B892" s="9">
+        <v>354</v>
+      </c>
+      <c r="C892" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D892" s="15" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E892" s="8">
+        <v>5</v>
+      </c>
+      <c r="F892" s="8">
+        <v>1</v>
+      </c>
+      <c r="G892" s="10" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A893" s="8">
+        <v>892</v>
+      </c>
+      <c r="B893" s="9">
+        <v>354</v>
+      </c>
+      <c r="C893" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D893" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E893" s="8">
+        <v>5</v>
+      </c>
+      <c r="F893" s="8">
+        <v>1</v>
+      </c>
+      <c r="G893" s="10" t="s">
+        <v>1081</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.22/permission_server_config.xlsx
+++ b/config_12.22/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="2005">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9306,6 +9306,10 @@
   </si>
   <si>
     <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -26238,13 +26242,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I893"/>
+  <dimension ref="A1:I894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C872" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E828" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B892" sqref="B892:B893"/>
+      <selection pane="bottomRight" activeCell="H847" sqref="H847:I849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43269,7 +43273,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="77">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C738" s="77" t="s">
         <v>1065</v>
@@ -43278,13 +43282,13 @@
         <v>1605</v>
       </c>
       <c r="E738" s="77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F738" s="77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G738" s="19" t="s">
-        <v>1634</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
@@ -43294,20 +43298,20 @@
       <c r="B739" s="77">
         <v>295</v>
       </c>
-      <c r="C739" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D739" s="77">
-        <v>4</v>
+      <c r="C739" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D739" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E739" s="77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F739" s="77">
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1665</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
@@ -43321,16 +43325,16 @@
         <v>1143</v>
       </c>
       <c r="D740" s="77">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E740" s="77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F740" s="77">
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
@@ -43338,22 +43342,22 @@
         <v>740</v>
       </c>
       <c r="B741" s="77">
-        <v>296</v>
-      </c>
-      <c r="C741" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D741" s="19" t="s">
-        <v>1605</v>
+        <v>295</v>
+      </c>
+      <c r="C741" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D741" s="77">
+        <v>7</v>
       </c>
       <c r="E741" s="77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F741" s="77">
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1634</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
@@ -43363,20 +43367,20 @@
       <c r="B742" s="77">
         <v>296</v>
       </c>
-      <c r="C742" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D742" s="77">
-        <v>8</v>
+      <c r="C742" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D742" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E742" s="77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F742" s="77">
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1667</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
@@ -43390,16 +43394,16 @@
         <v>1143</v>
       </c>
       <c r="D743" s="77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E743" s="77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F743" s="77">
         <v>1</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -43407,22 +43411,22 @@
         <v>743</v>
       </c>
       <c r="B744" s="77">
-        <v>297</v>
-      </c>
-      <c r="C744" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D744" s="19" t="s">
-        <v>1605</v>
+        <v>296</v>
+      </c>
+      <c r="C744" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D744" s="77">
+        <v>10</v>
       </c>
       <c r="E744" s="77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F744" s="77">
         <v>1</v>
       </c>
       <c r="G744" s="19" t="s">
-        <v>1634</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
@@ -43439,62 +43443,62 @@
         <v>1605</v>
       </c>
       <c r="E745" s="77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F745" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G745" s="19" t="s">
-        <v>2001</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" s="8">
         <v>745</v>
       </c>
-      <c r="B746" s="14">
-        <v>298</v>
-      </c>
-      <c r="C746" s="15" t="s">
+      <c r="B746" s="77">
+        <v>297</v>
+      </c>
+      <c r="C746" s="77" t="s">
         <v>1065</v>
       </c>
-      <c r="D746" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E746" s="14">
-        <v>2</v>
-      </c>
-      <c r="F746" s="14">
-        <v>1</v>
-      </c>
-      <c r="G746" s="15" t="s">
-        <v>1204</v>
+      <c r="D746" s="19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E746" s="77">
+        <v>2</v>
+      </c>
+      <c r="F746" s="77">
+        <v>2</v>
+      </c>
+      <c r="G746" s="19" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" s="8">
         <v>746</v>
       </c>
-      <c r="B747" s="8">
-        <v>299</v>
-      </c>
-      <c r="C747" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D747" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="E747" s="8">
-        <v>2</v>
-      </c>
-      <c r="F747" s="8">
-        <v>1</v>
-      </c>
-      <c r="G747" s="10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="748" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B747" s="14">
+        <v>298</v>
+      </c>
+      <c r="C747" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D747" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E747" s="14">
+        <v>2</v>
+      </c>
+      <c r="F747" s="14">
+        <v>1</v>
+      </c>
+      <c r="G747" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" s="8">
         <v>747</v>
       </c>
@@ -43505,39 +43509,39 @@
         <v>865</v>
       </c>
       <c r="D748" s="10" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E748" s="8">
         <v>2</v>
       </c>
       <c r="F748" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G748" s="10" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A749" s="8">
         <v>748</v>
       </c>
       <c r="B749" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C749" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D749" s="8">
-        <v>1</v>
+        <v>865</v>
+      </c>
+      <c r="D749" s="10" t="s">
+        <v>874</v>
       </c>
       <c r="E749" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F749" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G749" s="10" t="s">
-        <v>1611</v>
+        <v>919</v>
       </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.2">
@@ -43551,65 +43555,65 @@
         <v>1143</v>
       </c>
       <c r="D750" s="8">
+        <v>1</v>
+      </c>
+      <c r="E750" s="8">
         <v>3</v>
       </c>
-      <c r="E750" s="8">
-        <v>4</v>
-      </c>
       <c r="F750" s="8">
         <v>1</v>
       </c>
       <c r="G750" s="10" t="s">
-        <v>1492</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" s="8">
         <v>750</v>
       </c>
-      <c r="B751" s="14">
+      <c r="B751" s="8">
         <v>300</v>
       </c>
-      <c r="C751" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D751" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E751" s="14">
-        <v>5</v>
-      </c>
-      <c r="F751" s="14">
-        <v>1</v>
-      </c>
-      <c r="G751" s="15" t="s">
-        <v>1727</v>
+      <c r="C751" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D751" s="8">
+        <v>3</v>
+      </c>
+      <c r="E751" s="8">
+        <v>4</v>
+      </c>
+      <c r="F751" s="8">
+        <v>1</v>
+      </c>
+      <c r="G751" s="10" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" s="8">
         <v>751</v>
       </c>
-      <c r="B752" s="8">
-        <v>301</v>
-      </c>
-      <c r="C752" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D752" s="8">
-        <v>4</v>
-      </c>
-      <c r="E752" s="8">
-        <v>3</v>
-      </c>
-      <c r="F752" s="8">
-        <v>1</v>
-      </c>
-      <c r="G752" s="10" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="753" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B752" s="14">
+        <v>300</v>
+      </c>
+      <c r="C752" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D752" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E752" s="14">
+        <v>5</v>
+      </c>
+      <c r="F752" s="14">
+        <v>1</v>
+      </c>
+      <c r="G752" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753" s="8">
         <v>752</v>
       </c>
@@ -43620,39 +43624,39 @@
         <v>1608</v>
       </c>
       <c r="D753" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E753" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F753" s="8">
         <v>1</v>
       </c>
       <c r="G753" s="10" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A754" s="8">
         <v>753</v>
       </c>
-      <c r="B754" s="14">
+      <c r="B754" s="8">
         <v>301</v>
       </c>
-      <c r="C754" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D754" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E754" s="14">
-        <v>5</v>
-      </c>
-      <c r="F754" s="14">
-        <v>1</v>
-      </c>
-      <c r="G754" s="15" t="s">
-        <v>1727</v>
+      <c r="C754" s="10" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D754" s="8">
+        <v>6</v>
+      </c>
+      <c r="E754" s="8">
+        <v>4</v>
+      </c>
+      <c r="F754" s="8">
+        <v>1</v>
+      </c>
+      <c r="G754" s="10" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
@@ -43660,25 +43664,25 @@
         <v>754</v>
       </c>
       <c r="B755" s="14">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C755" s="15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D755" s="14">
-        <v>7</v>
+        <v>1065</v>
+      </c>
+      <c r="D755" s="15" t="s">
+        <v>1240</v>
       </c>
       <c r="E755" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F755" s="14">
         <v>1</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="756" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756" s="8">
         <v>755</v>
       </c>
@@ -43689,16 +43693,16 @@
         <v>1143</v>
       </c>
       <c r="D756" s="14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E756" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F756" s="14">
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1495</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="757" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43709,42 +43713,42 @@
         <v>302</v>
       </c>
       <c r="C757" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D757" s="15" t="s">
-        <v>1240</v>
+        <v>1143</v>
+      </c>
+      <c r="D757" s="14">
+        <v>10</v>
       </c>
       <c r="E757" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F757" s="14">
         <v>1</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>1727</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="758" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A758" s="8">
         <v>757</v>
       </c>
-      <c r="B758" s="8">
-        <v>303</v>
-      </c>
-      <c r="C758" s="10" t="s">
+      <c r="B758" s="14">
+        <v>302</v>
+      </c>
+      <c r="C758" s="15" t="s">
         <v>1065</v>
       </c>
-      <c r="D758" s="10" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E758" s="8">
-        <v>2</v>
-      </c>
-      <c r="F758" s="8">
-        <v>1</v>
-      </c>
-      <c r="G758" s="10" t="s">
-        <v>1204</v>
+      <c r="D758" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E758" s="14">
+        <v>5</v>
+      </c>
+      <c r="F758" s="14">
+        <v>1</v>
+      </c>
+      <c r="G758" s="15" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="759" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43755,22 +43759,22 @@
         <v>303</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>865</v>
+        <v>1065</v>
       </c>
       <c r="D759" s="10" t="s">
-        <v>870</v>
+        <v>1728</v>
       </c>
       <c r="E759" s="8">
         <v>2</v>
       </c>
       <c r="F759" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G759" s="10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A760" s="8">
         <v>759</v>
       </c>
@@ -43781,16 +43785,16 @@
         <v>865</v>
       </c>
       <c r="D760" s="10" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E760" s="8">
         <v>2</v>
       </c>
       <c r="F760" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G760" s="10" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -43798,22 +43802,22 @@
         <v>760</v>
       </c>
       <c r="B761" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D761" s="8">
-        <v>4</v>
+        <v>865</v>
+      </c>
+      <c r="D761" s="10" t="s">
+        <v>874</v>
       </c>
       <c r="E761" s="8">
+        <v>2</v>
+      </c>
+      <c r="F761" s="8">
         <v>3</v>
       </c>
-      <c r="F761" s="8">
-        <v>1</v>
-      </c>
       <c r="G761" s="10" t="s">
-        <v>1493</v>
+        <v>919</v>
       </c>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.2">
@@ -43827,65 +43831,65 @@
         <v>1608</v>
       </c>
       <c r="D762" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E762" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F762" s="8">
         <v>1</v>
       </c>
       <c r="G762" s="10" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763" s="8">
         <v>762</v>
       </c>
-      <c r="B763" s="14">
+      <c r="B763" s="8">
         <v>304</v>
       </c>
-      <c r="C763" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D763" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E763" s="14">
-        <v>5</v>
-      </c>
-      <c r="F763" s="14">
-        <v>1</v>
-      </c>
-      <c r="G763" s="15" t="s">
-        <v>1727</v>
+      <c r="C763" s="10" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D763" s="8">
+        <v>10</v>
+      </c>
+      <c r="E763" s="8">
+        <v>4</v>
+      </c>
+      <c r="F763" s="8">
+        <v>1</v>
+      </c>
+      <c r="G763" s="10" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764" s="8">
         <v>763</v>
       </c>
-      <c r="B764" s="8">
-        <v>305</v>
-      </c>
-      <c r="C764" s="10" t="s">
+      <c r="B764" s="14">
+        <v>304</v>
+      </c>
+      <c r="C764" s="15" t="s">
         <v>1065</v>
       </c>
-      <c r="D764" s="10" t="s">
+      <c r="D764" s="15" t="s">
         <v>1240</v>
       </c>
-      <c r="E764" s="8">
-        <v>2</v>
-      </c>
-      <c r="F764" s="8">
-        <v>1</v>
-      </c>
-      <c r="G764" s="10" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="765" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E764" s="14">
+        <v>5</v>
+      </c>
+      <c r="F764" s="14">
+        <v>1</v>
+      </c>
+      <c r="G764" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" s="8">
         <v>764</v>
       </c>
@@ -43893,10 +43897,10 @@
         <v>305</v>
       </c>
       <c r="C765" s="10" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="D765" s="10" t="s">
-        <v>1686</v>
+        <v>1240</v>
       </c>
       <c r="E765" s="8">
         <v>2</v>
@@ -43905,10 +43909,10 @@
         <v>1</v>
       </c>
       <c r="G765" s="10" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A766" s="8">
         <v>765</v>
       </c>
@@ -43916,19 +43920,19 @@
         <v>305</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D766" s="10" t="s">
-        <v>870</v>
+        <v>1686</v>
       </c>
       <c r="E766" s="8">
         <v>2</v>
       </c>
       <c r="F766" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>923</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -43939,10 +43943,10 @@
         <v>305</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D767" s="10" t="s">
-        <v>1686</v>
+        <v>870</v>
       </c>
       <c r="E767" s="8">
         <v>2</v>
@@ -43951,7 +43955,7 @@
         <v>2</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1693</v>
+        <v>923</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
@@ -43962,19 +43966,19 @@
         <v>305</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>874</v>
+        <v>1686</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
       </c>
       <c r="F768" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>919</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -43985,10 +43989,10 @@
         <v>305</v>
       </c>
       <c r="C769" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D769" s="10" t="s">
-        <v>1686</v>
+        <v>874</v>
       </c>
       <c r="E769" s="8">
         <v>2</v>
@@ -43997,7 +44001,7 @@
         <v>3</v>
       </c>
       <c r="G769" s="10" t="s">
-        <v>1692</v>
+        <v>919</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
@@ -44005,22 +44009,22 @@
         <v>769</v>
       </c>
       <c r="B770" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D770" s="8">
-        <v>1</v>
+        <v>1045</v>
+      </c>
+      <c r="D770" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E770" s="8">
+        <v>2</v>
+      </c>
+      <c r="F770" s="8">
         <v>3</v>
       </c>
-      <c r="F770" s="8">
-        <v>1</v>
-      </c>
       <c r="G770" s="10" t="s">
-        <v>1611</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -44034,16 +44038,16 @@
         <v>1143</v>
       </c>
       <c r="D771" s="8">
+        <v>1</v>
+      </c>
+      <c r="E771" s="8">
         <v>3</v>
       </c>
-      <c r="E771" s="8">
-        <v>4</v>
-      </c>
       <c r="F771" s="8">
         <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1492</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
@@ -44054,68 +44058,68 @@
         <v>306</v>
       </c>
       <c r="C772" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D772" s="10" t="s">
-        <v>1686</v>
+        <v>1143</v>
+      </c>
+      <c r="D772" s="8">
+        <v>3</v>
       </c>
       <c r="E772" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F772" s="8">
         <v>1</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1694</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773" s="8">
         <v>772</v>
       </c>
-      <c r="B773" s="14">
+      <c r="B773" s="8">
         <v>306</v>
       </c>
-      <c r="C773" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D773" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E773" s="14">
-        <v>5</v>
-      </c>
-      <c r="F773" s="14">
-        <v>1</v>
-      </c>
-      <c r="G773" s="15" t="s">
-        <v>1727</v>
+      <c r="C773" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D773" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E773" s="8">
+        <v>2</v>
+      </c>
+      <c r="F773" s="8">
+        <v>1</v>
+      </c>
+      <c r="G773" s="10" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774" s="8">
         <v>773</v>
       </c>
-      <c r="B774" s="8">
-        <v>307</v>
-      </c>
-      <c r="C774" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D774" s="8">
-        <v>4</v>
-      </c>
-      <c r="E774" s="8">
-        <v>3</v>
-      </c>
-      <c r="F774" s="8">
-        <v>1</v>
-      </c>
-      <c r="G774" s="10" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="775" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B774" s="14">
+        <v>306</v>
+      </c>
+      <c r="C774" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D774" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E774" s="14">
+        <v>5</v>
+      </c>
+      <c r="F774" s="14">
+        <v>1</v>
+      </c>
+      <c r="G774" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775" s="8">
         <v>774</v>
       </c>
@@ -44126,19 +44130,19 @@
         <v>1608</v>
       </c>
       <c r="D775" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E775" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F775" s="8">
         <v>1</v>
       </c>
       <c r="G775" s="10" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A776" s="8">
         <v>775</v>
       </c>
@@ -44146,142 +44150,142 @@
         <v>307</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D776" s="10" t="s">
-        <v>1686</v>
+        <v>1608</v>
+      </c>
+      <c r="D776" s="8">
+        <v>6</v>
       </c>
       <c r="E776" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F776" s="8">
         <v>1</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>1692</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777" s="8">
         <v>776</v>
       </c>
-      <c r="B777" s="14">
+      <c r="B777" s="8">
         <v>307</v>
       </c>
-      <c r="C777" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D777" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E777" s="14">
-        <v>5</v>
-      </c>
-      <c r="F777" s="14">
-        <v>1</v>
-      </c>
-      <c r="G777" s="15" t="s">
-        <v>1727</v>
+      <c r="C777" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D777" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E777" s="8">
+        <v>2</v>
+      </c>
+      <c r="F777" s="8">
+        <v>1</v>
+      </c>
+      <c r="G777" s="10" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778" s="8">
         <v>777</v>
       </c>
-      <c r="B778" s="8">
-        <v>308</v>
-      </c>
-      <c r="C778" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D778" s="8">
-        <v>7</v>
-      </c>
-      <c r="E778" s="8">
-        <v>3</v>
-      </c>
-      <c r="F778" s="8">
-        <v>1</v>
-      </c>
-      <c r="G778" s="10" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="779" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B778" s="14">
+        <v>307</v>
+      </c>
+      <c r="C778" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D778" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E778" s="14">
+        <v>5</v>
+      </c>
+      <c r="F778" s="14">
+        <v>1</v>
+      </c>
+      <c r="G778" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779" s="8">
         <v>778</v>
       </c>
-      <c r="B779" s="9">
+      <c r="B779" s="8">
         <v>308</v>
       </c>
-      <c r="C779" s="53" t="s">
+      <c r="C779" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="D779" s="9">
-        <v>10</v>
-      </c>
-      <c r="E779" s="9">
-        <v>4</v>
-      </c>
-      <c r="F779" s="9">
+      <c r="D779" s="8">
+        <v>7</v>
+      </c>
+      <c r="E779" s="8">
+        <v>3</v>
+      </c>
+      <c r="F779" s="8">
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A780" s="8">
         <v>779</v>
       </c>
-      <c r="B780" s="14">
+      <c r="B780" s="9">
         <v>308</v>
       </c>
-      <c r="C780" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D780" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E780" s="14">
-        <v>5</v>
-      </c>
-      <c r="F780" s="14">
-        <v>1</v>
-      </c>
-      <c r="G780" s="15" t="s">
-        <v>1727</v>
+      <c r="C780" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D780" s="9">
+        <v>10</v>
+      </c>
+      <c r="E780" s="9">
+        <v>4</v>
+      </c>
+      <c r="F780" s="9">
+        <v>1</v>
+      </c>
+      <c r="G780" s="10" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" s="8">
         <v>780</v>
       </c>
-      <c r="B781" s="8">
+      <c r="B781" s="14">
         <v>308</v>
       </c>
-      <c r="C781" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D781" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E781" s="8">
-        <v>2</v>
-      </c>
-      <c r="F781" s="8">
-        <v>1</v>
-      </c>
-      <c r="G781" s="10" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="782" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C781" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D781" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E781" s="14">
+        <v>5</v>
+      </c>
+      <c r="F781" s="14">
+        <v>1</v>
+      </c>
+      <c r="G781" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782" s="8">
         <v>781</v>
       </c>
       <c r="B782" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C782" s="10" t="s">
         <v>1045</v>
@@ -44296,15 +44300,15 @@
         <v>1</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A783" s="8">
         <v>782</v>
       </c>
       <c r="B783" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C783" s="10" t="s">
         <v>1045</v>
@@ -44313,13 +44317,13 @@
         <v>1686</v>
       </c>
       <c r="E783" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F783" s="8">
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -44327,22 +44331,22 @@
         <v>783</v>
       </c>
       <c r="B784" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1729</v>
+        <v>1686</v>
       </c>
       <c r="E784" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F784" s="8">
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1204</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -44353,19 +44357,19 @@
         <v>311</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1686</v>
+        <v>1729</v>
       </c>
       <c r="E785" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F785" s="8">
         <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1687</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
@@ -44376,19 +44380,19 @@
         <v>311</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>870</v>
+        <v>1686</v>
       </c>
       <c r="E786" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F786" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>923</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -44399,19 +44403,19 @@
         <v>311</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D787" s="10" t="s">
-        <v>1686</v>
+        <v>870</v>
       </c>
       <c r="E787" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F787" s="8">
         <v>2</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1687</v>
+        <v>923</v>
       </c>
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.2">
@@ -44422,19 +44426,19 @@
         <v>311</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>874</v>
+        <v>1686</v>
       </c>
       <c r="E788" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F788" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>919</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -44445,19 +44449,19 @@
         <v>311</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D789" s="10" t="s">
-        <v>1686</v>
+        <v>874</v>
       </c>
       <c r="E789" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F789" s="8">
         <v>3</v>
       </c>
       <c r="G789" s="10" t="s">
-        <v>1687</v>
+        <v>919</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
@@ -44465,22 +44469,22 @@
         <v>789</v>
       </c>
       <c r="B790" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D790" s="8">
-        <v>1</v>
+        <v>1045</v>
+      </c>
+      <c r="D790" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E790" s="8">
+        <v>5</v>
+      </c>
+      <c r="F790" s="8">
         <v>3</v>
       </c>
-      <c r="F790" s="8">
-        <v>1</v>
-      </c>
       <c r="G790" s="10" t="s">
-        <v>1504</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -44494,16 +44498,16 @@
         <v>1143</v>
       </c>
       <c r="D791" s="8">
+        <v>1</v>
+      </c>
+      <c r="E791" s="8">
         <v>3</v>
       </c>
-      <c r="E791" s="8">
-        <v>4</v>
-      </c>
       <c r="F791" s="8">
         <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1492</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
@@ -44514,68 +44518,68 @@
         <v>312</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D792" s="10" t="s">
-        <v>1686</v>
+        <v>1143</v>
+      </c>
+      <c r="D792" s="8">
+        <v>3</v>
       </c>
       <c r="E792" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F792" s="8">
         <v>1</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1687</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" s="8">
         <v>792</v>
       </c>
-      <c r="B793" s="14">
+      <c r="B793" s="8">
         <v>312</v>
       </c>
-      <c r="C793" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D793" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E793" s="14">
+      <c r="C793" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D793" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E793" s="8">
         <v>5</v>
       </c>
-      <c r="F793" s="14">
-        <v>1</v>
-      </c>
-      <c r="G793" s="15" t="s">
-        <v>1727</v>
+      <c r="F793" s="8">
+        <v>1</v>
+      </c>
+      <c r="G793" s="10" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794" s="8">
         <v>793</v>
       </c>
-      <c r="B794" s="8">
-        <v>313</v>
-      </c>
-      <c r="C794" s="10" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D794" s="8">
-        <v>4</v>
-      </c>
-      <c r="E794" s="8">
-        <v>3</v>
-      </c>
-      <c r="F794" s="8">
-        <v>1</v>
-      </c>
-      <c r="G794" s="10" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="795" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B794" s="14">
+        <v>312</v>
+      </c>
+      <c r="C794" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D794" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E794" s="14">
+        <v>5</v>
+      </c>
+      <c r="F794" s="14">
+        <v>1</v>
+      </c>
+      <c r="G794" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795" s="8">
         <v>794</v>
       </c>
@@ -44586,19 +44590,19 @@
         <v>1155</v>
       </c>
       <c r="D795" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E795" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F795" s="8">
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A796" s="8">
         <v>795</v>
       </c>
@@ -44606,142 +44610,142 @@
         <v>313</v>
       </c>
       <c r="C796" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D796" s="10" t="s">
-        <v>1686</v>
+        <v>1155</v>
+      </c>
+      <c r="D796" s="8">
+        <v>6</v>
       </c>
       <c r="E796" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F796" s="8">
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>1687</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" s="8">
         <v>796</v>
       </c>
-      <c r="B797" s="14">
+      <c r="B797" s="8">
         <v>313</v>
       </c>
-      <c r="C797" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D797" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E797" s="14">
+      <c r="C797" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D797" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E797" s="8">
         <v>5</v>
       </c>
-      <c r="F797" s="14">
-        <v>1</v>
-      </c>
-      <c r="G797" s="15" t="s">
-        <v>1727</v>
+      <c r="F797" s="8">
+        <v>1</v>
+      </c>
+      <c r="G797" s="10" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" s="8">
         <v>797</v>
       </c>
-      <c r="B798" s="8">
-        <v>314</v>
-      </c>
-      <c r="C798" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D798" s="8">
-        <v>7</v>
-      </c>
-      <c r="E798" s="8">
-        <v>3</v>
-      </c>
-      <c r="F798" s="8">
-        <v>1</v>
-      </c>
-      <c r="G798" s="10" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="799" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B798" s="14">
+        <v>313</v>
+      </c>
+      <c r="C798" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D798" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E798" s="14">
+        <v>5</v>
+      </c>
+      <c r="F798" s="14">
+        <v>1</v>
+      </c>
+      <c r="G798" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" s="8">
         <v>798</v>
       </c>
-      <c r="B799" s="9">
+      <c r="B799" s="8">
         <v>314</v>
       </c>
-      <c r="C799" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D799" s="9">
-        <v>10</v>
-      </c>
-      <c r="E799" s="9">
-        <v>4</v>
-      </c>
-      <c r="F799" s="9">
+      <c r="C799" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D799" s="8">
+        <v>7</v>
+      </c>
+      <c r="E799" s="8">
+        <v>3</v>
+      </c>
+      <c r="F799" s="8">
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A800" s="8">
         <v>799</v>
       </c>
-      <c r="B800" s="14">
+      <c r="B800" s="9">
         <v>314</v>
       </c>
-      <c r="C800" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D800" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E800" s="14">
-        <v>5</v>
-      </c>
-      <c r="F800" s="14">
-        <v>1</v>
-      </c>
-      <c r="G800" s="15" t="s">
-        <v>1727</v>
+      <c r="C800" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D800" s="9">
+        <v>10</v>
+      </c>
+      <c r="E800" s="9">
+        <v>4</v>
+      </c>
+      <c r="F800" s="9">
+        <v>1</v>
+      </c>
+      <c r="G800" s="10" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" s="8">
         <v>800</v>
       </c>
-      <c r="B801" s="8">
+      <c r="B801" s="14">
         <v>314</v>
       </c>
-      <c r="C801" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D801" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E801" s="8">
+      <c r="C801" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D801" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E801" s="14">
         <v>5</v>
       </c>
-      <c r="F801" s="8">
-        <v>1</v>
-      </c>
-      <c r="G801" s="10" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="802" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F801" s="14">
+        <v>1</v>
+      </c>
+      <c r="G801" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802" s="8">
         <v>801</v>
       </c>
-      <c r="B802" s="9">
-        <v>315</v>
+      <c r="B802" s="8">
+        <v>314</v>
       </c>
       <c r="C802" s="10" t="s">
         <v>1045</v>
@@ -44756,15 +44760,15 @@
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A803" s="8">
         <v>802</v>
       </c>
       <c r="B803" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C803" s="10" t="s">
         <v>1045</v>
@@ -44772,14 +44776,14 @@
       <c r="D803" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E803" s="9">
-        <v>2</v>
+      <c r="E803" s="8">
+        <v>5</v>
       </c>
       <c r="F803" s="8">
         <v>1</v>
       </c>
-      <c r="G803" s="53" t="s">
-        <v>1711</v>
+      <c r="G803" s="10" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -44787,7 +44791,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="9">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C804" s="10" t="s">
         <v>1045</v>
@@ -44795,14 +44799,14 @@
       <c r="D804" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E804" s="8">
-        <v>5</v>
+      <c r="E804" s="9">
+        <v>2</v>
       </c>
       <c r="F804" s="8">
         <v>1</v>
       </c>
-      <c r="G804" s="10" t="s">
-        <v>1710</v>
+      <c r="G804" s="53" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -44810,7 +44814,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C805" s="10" t="s">
         <v>1045</v>
@@ -44818,14 +44822,14 @@
       <c r="D805" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E805" s="9">
-        <v>2</v>
+      <c r="E805" s="8">
+        <v>5</v>
       </c>
       <c r="F805" s="8">
         <v>1</v>
       </c>
-      <c r="G805" s="53" t="s">
-        <v>1711</v>
+      <c r="G805" s="10" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -44833,7 +44837,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="9">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C806" s="10" t="s">
         <v>1045</v>
@@ -44841,14 +44845,14 @@
       <c r="D806" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E806" s="8">
-        <v>5</v>
+      <c r="E806" s="9">
+        <v>2</v>
       </c>
       <c r="F806" s="8">
         <v>1</v>
       </c>
-      <c r="G806" s="10" t="s">
-        <v>1710</v>
+      <c r="G806" s="53" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -44861,17 +44865,17 @@
       <c r="C807" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D807" s="9" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E807" s="9">
+      <c r="D807" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E807" s="8">
         <v>5</v>
       </c>
       <c r="F807" s="8">
         <v>1</v>
       </c>
-      <c r="G807" s="9" t="s">
-        <v>1747</v>
+      <c r="G807" s="10" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -44879,22 +44883,22 @@
         <v>807</v>
       </c>
       <c r="B808" s="9">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C808" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D808" s="10" t="s">
-        <v>1686</v>
+      <c r="D808" s="9" t="s">
+        <v>1950</v>
       </c>
       <c r="E808" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F808" s="8">
         <v>1</v>
       </c>
-      <c r="G808" s="53" t="s">
-        <v>1711</v>
+      <c r="G808" s="9" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44902,7 +44906,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C809" s="10" t="s">
         <v>1045</v>
@@ -44911,13 +44915,13 @@
         <v>1686</v>
       </c>
       <c r="E809" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F809" s="8">
         <v>1</v>
       </c>
-      <c r="G809" s="9" t="s">
-        <v>1655</v>
+      <c r="G809" s="53" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44931,7 +44935,7 @@
         <v>1045</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1991</v>
+        <v>1686</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -44939,8 +44943,8 @@
       <c r="F810" s="8">
         <v>1</v>
       </c>
-      <c r="G810" s="53" t="s">
-        <v>1818</v>
+      <c r="G810" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44951,19 +44955,19 @@
         <v>321</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="D811" s="8">
-        <v>0</v>
-      </c>
-      <c r="E811" s="8">
-        <v>2</v>
+        <v>1045</v>
+      </c>
+      <c r="D811" s="10" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E811" s="9">
+        <v>5</v>
       </c>
       <c r="F811" s="8">
         <v>1</v>
       </c>
-      <c r="G811" s="10" t="s">
-        <v>883</v>
+      <c r="G811" s="53" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44971,22 +44975,22 @@
         <v>811</v>
       </c>
       <c r="B812" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D812" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E812" s="9">
-        <v>5</v>
+        <v>878</v>
+      </c>
+      <c r="D812" s="8">
+        <v>0</v>
+      </c>
+      <c r="E812" s="8">
+        <v>2</v>
       </c>
       <c r="F812" s="8">
         <v>1</v>
       </c>
-      <c r="G812" s="9" t="s">
-        <v>1655</v>
+      <c r="G812" s="10" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
@@ -44997,19 +45001,19 @@
         <v>322</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E813" s="8">
+        <v>1686</v>
+      </c>
+      <c r="E813" s="9">
         <v>5</v>
       </c>
       <c r="F813" s="8">
         <v>1</v>
       </c>
-      <c r="G813" s="10" t="s">
-        <v>1634</v>
+      <c r="G813" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -45020,19 +45024,19 @@
         <v>322</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D814" s="8">
-        <v>4</v>
+        <v>1065</v>
+      </c>
+      <c r="D814" s="10" t="s">
+        <v>1240</v>
       </c>
       <c r="E814" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F814" s="8">
         <v>1</v>
       </c>
       <c r="G814" s="10" t="s">
-        <v>1493</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -45042,20 +45046,20 @@
       <c r="B815" s="9">
         <v>322</v>
       </c>
-      <c r="C815" s="53" t="s">
+      <c r="C815" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="D815" s="9">
-        <v>10</v>
-      </c>
-      <c r="E815" s="9">
+      <c r="D815" s="8">
         <v>4</v>
       </c>
-      <c r="F815" s="9">
+      <c r="E815" s="8">
+        <v>3</v>
+      </c>
+      <c r="F815" s="8">
         <v>1</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -45063,45 +45067,45 @@
         <v>815</v>
       </c>
       <c r="B816" s="9">
-        <v>323</v>
-      </c>
-      <c r="C816" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D816" s="10" t="s">
-        <v>1686</v>
+        <v>322</v>
+      </c>
+      <c r="C816" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D816" s="9">
+        <v>10</v>
       </c>
       <c r="E816" s="9">
-        <v>5</v>
-      </c>
-      <c r="F816" s="8">
-        <v>1</v>
-      </c>
-      <c r="G816" s="9" t="s">
-        <v>1655</v>
+        <v>4</v>
+      </c>
+      <c r="F816" s="9">
+        <v>1</v>
+      </c>
+      <c r="G816" s="10" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" s="8">
         <v>816</v>
       </c>
-      <c r="B817" s="8">
-        <v>324</v>
+      <c r="B817" s="9">
+        <v>323</v>
       </c>
       <c r="C817" s="10" t="s">
-        <v>1739</v>
+        <v>1045</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E817" s="8">
-        <v>2</v>
+        <v>1686</v>
+      </c>
+      <c r="E817" s="9">
+        <v>5</v>
       </c>
       <c r="F817" s="8">
         <v>1</v>
       </c>
-      <c r="G817" s="10" t="s">
-        <v>1741</v>
+      <c r="G817" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
@@ -45112,22 +45116,22 @@
         <v>324</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>1045</v>
+        <v>1739</v>
       </c>
       <c r="D818" s="10" t="s">
-        <v>1686</v>
+        <v>1740</v>
       </c>
       <c r="E818" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F818" s="8">
         <v>1</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="819" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" s="8">
         <v>818</v>
       </c>
@@ -45135,22 +45139,22 @@
         <v>324</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1804</v>
+        <v>1686</v>
       </c>
       <c r="E819" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F819" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="8">
         <v>819</v>
       </c>
@@ -45158,19 +45162,19 @@
         <v>324</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1686</v>
+        <v>1804</v>
       </c>
       <c r="E820" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F820" s="8">
         <v>2</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1746</v>
+        <v>923</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -45181,19 +45185,19 @@
         <v>324</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>874</v>
+        <v>1686</v>
       </c>
       <c r="E821" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F821" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>919</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -45204,27 +45208,27 @@
         <v>324</v>
       </c>
       <c r="C822" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D822" s="10" t="s">
-        <v>1686</v>
+        <v>874</v>
       </c>
       <c r="E822" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F822" s="8">
         <v>3</v>
       </c>
       <c r="G822" s="10" t="s">
-        <v>1746</v>
+        <v>919</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823" s="8">
         <v>822</v>
       </c>
-      <c r="B823" s="9">
-        <v>325</v>
+      <c r="B823" s="8">
+        <v>324</v>
       </c>
       <c r="C823" s="10" t="s">
         <v>1045</v>
@@ -45232,14 +45236,14 @@
       <c r="D823" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E823" s="9">
+      <c r="E823" s="8">
         <v>5</v>
       </c>
       <c r="F823" s="8">
-        <v>1</v>
-      </c>
-      <c r="G823" s="9" t="s">
-        <v>1655</v>
+        <v>3</v>
+      </c>
+      <c r="G823" s="10" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -45247,71 +45251,71 @@
         <v>823</v>
       </c>
       <c r="B824" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C824" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D824" s="9" t="s">
-        <v>1950</v>
+      <c r="D824" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E824" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F824" s="8">
         <v>1</v>
       </c>
       <c r="G824" s="9" t="s">
-        <v>1747</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825" s="8">
         <v>824</v>
       </c>
-      <c r="B825" s="14">
-        <v>327</v>
-      </c>
-      <c r="C825" s="15" t="s">
+      <c r="B825" s="9">
+        <v>326</v>
+      </c>
+      <c r="C825" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D825" s="15" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E825" s="14">
-        <v>2</v>
-      </c>
-      <c r="F825" s="14">
-        <v>1</v>
-      </c>
-      <c r="G825" s="15" t="s">
-        <v>1819</v>
+      <c r="D825" s="9" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E825" s="9">
+        <v>2</v>
+      </c>
+      <c r="F825" s="8">
+        <v>1</v>
+      </c>
+      <c r="G825" s="9" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" s="8">
         <v>825</v>
       </c>
-      <c r="B826" s="8">
+      <c r="B826" s="14">
         <v>327</v>
       </c>
-      <c r="C826" s="10" t="s">
+      <c r="C826" s="15" t="s">
         <v>1045</v>
       </c>
-      <c r="D826" s="10" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E826" s="8">
-        <v>2</v>
-      </c>
-      <c r="F826" s="8">
-        <v>2</v>
-      </c>
-      <c r="G826" s="10" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="827" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D826" s="15" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E826" s="14">
+        <v>2</v>
+      </c>
+      <c r="F826" s="14">
+        <v>1</v>
+      </c>
+      <c r="G826" s="15" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827" s="8">
         <v>826</v>
       </c>
@@ -45322,39 +45326,39 @@
         <v>1045</v>
       </c>
       <c r="D827" s="10" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="E827" s="8">
         <v>2</v>
       </c>
       <c r="F827" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G827" s="10" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A828" s="8">
         <v>827</v>
       </c>
-      <c r="B828" s="9">
-        <v>328</v>
-      </c>
-      <c r="C828" s="53" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D828" s="9" t="s">
-        <v>1763</v>
-      </c>
-      <c r="E828" s="9">
-        <v>5</v>
-      </c>
-      <c r="F828" s="9">
-        <v>1</v>
-      </c>
-      <c r="G828" s="9" t="s">
-        <v>1757</v>
+      <c r="B828" s="8">
+        <v>327</v>
+      </c>
+      <c r="C828" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D828" s="10" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E828" s="8">
+        <v>2</v>
+      </c>
+      <c r="F828" s="8">
+        <v>3</v>
+      </c>
+      <c r="G828" s="10" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -45364,11 +45368,11 @@
       <c r="B829" s="9">
         <v>328</v>
       </c>
-      <c r="C829" s="10" t="s">
-        <v>1045</v>
+      <c r="C829" s="53" t="s">
+        <v>1837</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1950</v>
+        <v>1763</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -45376,8 +45380,8 @@
       <c r="F829" s="9">
         <v>1</v>
       </c>
-      <c r="G829" s="53" t="s">
-        <v>1835</v>
+      <c r="G829" s="9" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -45385,13 +45389,13 @@
         <v>829</v>
       </c>
       <c r="B830" s="9">
-        <v>329</v>
-      </c>
-      <c r="C830" s="9" t="s">
-        <v>897</v>
+        <v>328</v>
+      </c>
+      <c r="C830" s="10" t="s">
+        <v>1045</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1763</v>
+        <v>1950</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -45399,8 +45403,8 @@
       <c r="F830" s="9">
         <v>1</v>
       </c>
-      <c r="G830" s="9" t="s">
-        <v>1757</v>
+      <c r="G830" s="53" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -45410,11 +45414,11 @@
       <c r="B831" s="9">
         <v>329</v>
       </c>
-      <c r="C831" s="10" t="s">
-        <v>1045</v>
+      <c r="C831" s="9" t="s">
+        <v>897</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1950</v>
+        <v>1763</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -45422,8 +45426,8 @@
       <c r="F831" s="9">
         <v>1</v>
       </c>
-      <c r="G831" s="53" t="s">
-        <v>1833</v>
+      <c r="G831" s="9" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -45431,22 +45435,22 @@
         <v>831</v>
       </c>
       <c r="B832" s="9">
-        <v>330</v>
-      </c>
-      <c r="C832" s="53" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D832" s="9">
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="C832" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D832" s="9" t="s">
+        <v>1950</v>
       </c>
       <c r="E832" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F832" s="9">
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1795</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -45457,19 +45461,19 @@
         <v>330</v>
       </c>
       <c r="C833" s="53" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D833" s="9">
+        <v>1</v>
+      </c>
+      <c r="E833" s="9">
         <v>3</v>
       </c>
-      <c r="E833" s="9">
-        <v>4</v>
-      </c>
       <c r="F833" s="9">
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -45480,19 +45484,19 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D834" s="53" t="s">
-        <v>1884</v>
+        <v>1871</v>
+      </c>
+      <c r="D834" s="9">
+        <v>3</v>
       </c>
       <c r="E834" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F834" s="9">
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -45502,20 +45506,20 @@
       <c r="B835" s="9">
         <v>330</v>
       </c>
-      <c r="C835" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D835" s="10" t="s">
-        <v>1804</v>
+      <c r="C835" s="53" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D835" s="53" t="s">
+        <v>1884</v>
       </c>
       <c r="E835" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F835" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -45525,20 +45529,20 @@
       <c r="B836" s="9">
         <v>330</v>
       </c>
-      <c r="C836" s="9" t="s">
+      <c r="C836" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="D836" s="9" t="s">
-        <v>866</v>
+      <c r="D836" s="10" t="s">
+        <v>1804</v>
       </c>
       <c r="E836" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F836" s="9">
         <v>2</v>
       </c>
-      <c r="G836" s="9" t="s">
-        <v>1807</v>
+      <c r="G836" s="53" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -45552,16 +45556,16 @@
         <v>865</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="E837" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F837" s="9">
-        <v>3</v>
-      </c>
-      <c r="G837" s="53" t="s">
-        <v>1809</v>
+        <v>2</v>
+      </c>
+      <c r="G837" s="9" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -45575,16 +45579,16 @@
         <v>865</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1867</v>
+        <v>874</v>
       </c>
       <c r="E838" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F838" s="9">
         <v>3</v>
       </c>
-      <c r="G838" s="9" t="s">
-        <v>1807</v>
+      <c r="G838" s="53" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -45592,22 +45596,22 @@
         <v>838</v>
       </c>
       <c r="B839" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C839" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="D839" s="9">
-        <v>4</v>
+        <v>865</v>
+      </c>
+      <c r="D839" s="9" t="s">
+        <v>1867</v>
       </c>
       <c r="E839" s="9">
+        <v>5</v>
+      </c>
+      <c r="F839" s="9">
         <v>3</v>
       </c>
-      <c r="F839" s="9">
-        <v>1</v>
-      </c>
-      <c r="G839" s="53" t="s">
-        <v>1798</v>
+      <c r="G839" s="9" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -45621,16 +45625,16 @@
         <v>878</v>
       </c>
       <c r="D840" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E840" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F840" s="9">
         <v>1</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -45641,19 +45645,19 @@
         <v>331</v>
       </c>
       <c r="C841" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D841" s="9" t="s">
-        <v>866</v>
+        <v>878</v>
+      </c>
+      <c r="D841" s="9">
+        <v>10</v>
       </c>
       <c r="E841" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F841" s="9">
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -45661,22 +45665,22 @@
         <v>841</v>
       </c>
       <c r="B842" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C842" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="D842" s="9">
-        <v>0</v>
+        <v>1065</v>
+      </c>
+      <c r="D842" s="9" t="s">
+        <v>866</v>
       </c>
       <c r="E842" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F842" s="9">
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1817</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -45684,22 +45688,22 @@
         <v>842</v>
       </c>
       <c r="B843" s="9">
-        <v>333</v>
-      </c>
-      <c r="C843" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D843" s="9" t="s">
-        <v>1950</v>
+        <v>332</v>
+      </c>
+      <c r="C843" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="D843" s="9">
+        <v>0</v>
       </c>
       <c r="E843" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F843" s="9">
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -45707,22 +45711,22 @@
         <v>843</v>
       </c>
       <c r="B844" s="9">
-        <v>334</v>
-      </c>
-      <c r="C844" s="9" t="s">
-        <v>865</v>
+        <v>333</v>
+      </c>
+      <c r="C844" s="10" t="s">
+        <v>1045</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>870</v>
+        <v>1950</v>
       </c>
       <c r="E844" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F844" s="9">
         <v>1</v>
       </c>
-      <c r="G844" s="9" t="s">
-        <v>871</v>
+      <c r="G844" s="53" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45732,11 +45736,11 @@
       <c r="B845" s="9">
         <v>334</v>
       </c>
-      <c r="C845" s="10" t="s">
-        <v>1045</v>
+      <c r="C845" s="9" t="s">
+        <v>865</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>1950</v>
+        <v>870</v>
       </c>
       <c r="E845" s="9">
         <v>2</v>
@@ -45745,7 +45749,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="9" t="s">
-        <v>1846</v>
+        <v>871</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -45753,13 +45757,13 @@
         <v>845</v>
       </c>
       <c r="B846" s="9">
-        <v>335</v>
-      </c>
-      <c r="C846" s="9" t="s">
-        <v>865</v>
+        <v>334</v>
+      </c>
+      <c r="C846" s="10" t="s">
+        <v>1045</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>874</v>
+        <v>1950</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -45767,14 +45771,8 @@
       <c r="F846" s="9">
         <v>1</v>
       </c>
-      <c r="G846" s="53" t="s">
-        <v>875</v>
-      </c>
-      <c r="H846" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I846" s="9" t="s">
-        <v>873</v>
+      <c r="G846" s="9" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -45784,11 +45782,11 @@
       <c r="B847" s="9">
         <v>335</v>
       </c>
-      <c r="C847" s="10" t="s">
-        <v>1045</v>
+      <c r="C847" s="9" t="s">
+        <v>865</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>1950</v>
+        <v>874</v>
       </c>
       <c r="E847" s="9">
         <v>2</v>
@@ -45796,109 +45794,115 @@
       <c r="F847" s="9">
         <v>1</v>
       </c>
-      <c r="G847" s="9" t="s">
-        <v>1846</v>
+      <c r="G847" s="53" t="s">
+        <v>875</v>
+      </c>
+      <c r="H847" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I847" s="9" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A848" s="8">
         <v>847</v>
       </c>
-      <c r="B848" s="98">
-        <v>336</v>
-      </c>
-      <c r="C848" s="98" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D848" s="99" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E848" s="98">
-        <v>5</v>
-      </c>
-      <c r="F848" s="98">
-        <v>1</v>
-      </c>
-      <c r="G848" s="99" t="s">
-        <v>1847</v>
-      </c>
-      <c r="H848" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="I848" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B848" s="9">
+        <v>335</v>
+      </c>
+      <c r="C848" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D848" s="9" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E848" s="9">
+        <v>2</v>
+      </c>
+      <c r="F848" s="9">
+        <v>1</v>
+      </c>
+      <c r="G848" s="9" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A849" s="8">
         <v>848</v>
       </c>
-      <c r="B849" s="9">
+      <c r="B849" s="98">
         <v>336</v>
       </c>
-      <c r="C849" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D849" s="9" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E849" s="9">
+      <c r="C849" s="98" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D849" s="99" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E849" s="98">
         <v>5</v>
       </c>
-      <c r="F849" s="9">
-        <v>1</v>
-      </c>
-      <c r="G849" s="9" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="850" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F849" s="98">
+        <v>1</v>
+      </c>
+      <c r="G849" s="99" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H849" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="I849" s="9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A850" s="8">
         <v>849</v>
       </c>
-      <c r="B850" s="106">
-        <v>337</v>
-      </c>
-      <c r="C850" s="107" t="s">
+      <c r="B850" s="9">
+        <v>336</v>
+      </c>
+      <c r="C850" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D850" s="107" t="s">
-        <v>1863</v>
-      </c>
-      <c r="E850" s="106">
-        <v>2</v>
-      </c>
-      <c r="F850" s="106">
-        <v>1</v>
-      </c>
-      <c r="G850" s="107" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D850" s="9" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E850" s="9">
+        <v>5</v>
+      </c>
+      <c r="F850" s="9">
+        <v>1</v>
+      </c>
+      <c r="G850" s="9" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A851" s="8">
         <v>850</v>
       </c>
       <c r="B851" s="106">
         <v>337</v>
       </c>
-      <c r="C851" s="106" t="s">
-        <v>893</v>
-      </c>
-      <c r="D851" s="106">
-        <v>1604968200</v>
+      <c r="C851" s="107" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D851" s="107" t="s">
+        <v>1863</v>
       </c>
       <c r="E851" s="106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F851" s="106">
         <v>1</v>
       </c>
       <c r="G851" s="107" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A852" s="8">
         <v>851</v>
       </c>
@@ -45906,96 +45910,96 @@
         <v>337</v>
       </c>
       <c r="C852" s="106" t="s">
-        <v>865</v>
-      </c>
-      <c r="D852" s="106" t="s">
-        <v>866</v>
+        <v>893</v>
+      </c>
+      <c r="D852" s="106">
+        <v>1604968200</v>
       </c>
       <c r="E852" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F852" s="106">
         <v>1</v>
       </c>
-      <c r="G852" s="106" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G852" s="107" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A853" s="8">
         <v>852</v>
       </c>
-      <c r="B853" s="14">
-        <v>338</v>
-      </c>
-      <c r="C853" s="14" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D853" s="14" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E853" s="14">
-        <v>5</v>
-      </c>
-      <c r="F853" s="14">
-        <v>1</v>
-      </c>
-      <c r="G853" s="14" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="854" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B853" s="106">
+        <v>337</v>
+      </c>
+      <c r="C853" s="106" t="s">
+        <v>865</v>
+      </c>
+      <c r="D853" s="106" t="s">
+        <v>866</v>
+      </c>
+      <c r="E853" s="106">
+        <v>2</v>
+      </c>
+      <c r="F853" s="106">
+        <v>1</v>
+      </c>
+      <c r="G853" s="106" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A854" s="8">
         <v>853</v>
       </c>
-      <c r="B854" s="8">
-        <v>339</v>
-      </c>
-      <c r="C854" s="10" t="s">
-        <v>1886</v>
-      </c>
-      <c r="D854" s="10" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E854" s="8">
-        <v>2</v>
-      </c>
-      <c r="F854" s="8">
-        <v>1</v>
-      </c>
-      <c r="G854" s="10" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="855" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B854" s="14">
+        <v>338</v>
+      </c>
+      <c r="C854" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D854" s="14" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E854" s="14">
+        <v>5</v>
+      </c>
+      <c r="F854" s="14">
+        <v>1</v>
+      </c>
+      <c r="G854" s="14" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A855" s="8">
         <v>854</v>
       </c>
       <c r="B855" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C855" s="10" t="s">
-        <v>1174</v>
+        <v>1886</v>
       </c>
       <c r="D855" s="10" t="s">
-        <v>1950</v>
+        <v>1885</v>
       </c>
       <c r="E855" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F855" s="8">
         <v>1</v>
       </c>
       <c r="G855" s="10" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A856" s="8">
         <v>855</v>
       </c>
       <c r="B856" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C856" s="10" t="s">
         <v>1174</v>
@@ -46004,154 +46008,154 @@
         <v>1950</v>
       </c>
       <c r="E856" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F856" s="8">
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A857" s="8">
         <v>856</v>
       </c>
-      <c r="B857" s="110">
-        <v>342</v>
-      </c>
-      <c r="C857" s="111" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D857" s="111" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E857" s="110">
-        <v>2</v>
-      </c>
-      <c r="F857" s="110">
-        <v>1</v>
-      </c>
-      <c r="G857" s="111" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B857" s="8">
+        <v>341</v>
+      </c>
+      <c r="C857" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D857" s="10" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E857" s="8">
+        <v>2</v>
+      </c>
+      <c r="F857" s="8">
+        <v>1</v>
+      </c>
+      <c r="G857" s="10" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A858" s="8">
         <v>857</v>
       </c>
       <c r="B858" s="110">
         <v>342</v>
       </c>
-      <c r="C858" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D858" s="110">
-        <v>1</v>
+      <c r="C858" s="111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D858" s="111" t="s">
+        <v>1939</v>
       </c>
       <c r="E858" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F858" s="110">
         <v>1</v>
       </c>
       <c r="G858" s="111" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A859" s="8">
         <v>858</v>
       </c>
       <c r="B859" s="110">
         <v>342</v>
       </c>
-      <c r="C859" s="111" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D859" s="111" t="s">
-        <v>1936</v>
+      <c r="C859" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D859" s="110">
+        <v>1</v>
       </c>
       <c r="E859" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F859" s="110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G859" s="111" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A860" s="8">
         <v>859</v>
       </c>
       <c r="B860" s="110">
         <v>342</v>
       </c>
-      <c r="C860" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D860" s="110">
-        <v>1</v>
+      <c r="C860" s="111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D860" s="111" t="s">
+        <v>1936</v>
       </c>
       <c r="E860" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F860" s="110">
         <v>2</v>
       </c>
       <c r="G860" s="111" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="861" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A861" s="8">
         <v>860</v>
       </c>
       <c r="B861" s="110">
         <v>342</v>
       </c>
-      <c r="C861" s="111" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D861" s="111" t="s">
-        <v>1937</v>
+      <c r="C861" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D861" s="110">
+        <v>1</v>
       </c>
       <c r="E861" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F861" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G861" s="111" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="862" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A862" s="8">
         <v>861</v>
       </c>
       <c r="B862" s="110">
         <v>342</v>
       </c>
-      <c r="C862" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D862" s="110">
-        <v>1</v>
+      <c r="C862" s="111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D862" s="111" t="s">
+        <v>1937</v>
       </c>
       <c r="E862" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F862" s="110">
         <v>3</v>
       </c>
       <c r="G862" s="111" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="863" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A863" s="8">
         <v>862</v>
       </c>
@@ -46159,22 +46163,22 @@
         <v>342</v>
       </c>
       <c r="C863" s="110" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D863" s="110" t="s">
-        <v>1950</v>
+        <v>878</v>
+      </c>
+      <c r="D863" s="110">
+        <v>1</v>
       </c>
       <c r="E863" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F863" s="110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G863" s="111" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A864" s="8">
         <v>863</v>
       </c>
@@ -46182,42 +46186,42 @@
         <v>342</v>
       </c>
       <c r="C864" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D864" s="110">
-        <v>1</v>
+        <v>1045</v>
+      </c>
+      <c r="D864" s="110" t="s">
+        <v>1950</v>
       </c>
       <c r="E864" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F864" s="110">
         <v>4</v>
       </c>
       <c r="G864" s="111" t="s">
-        <v>1941</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A865" s="8">
         <v>864</v>
       </c>
-      <c r="B865" s="9">
-        <v>343</v>
-      </c>
-      <c r="C865" s="53" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D865" s="9">
-        <v>1</v>
-      </c>
-      <c r="E865" s="9">
+      <c r="B865" s="110">
+        <v>342</v>
+      </c>
+      <c r="C865" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D865" s="110">
+        <v>1</v>
+      </c>
+      <c r="E865" s="110">
         <v>3</v>
       </c>
-      <c r="F865" s="9">
-        <v>1</v>
-      </c>
-      <c r="G865" s="10" t="s">
-        <v>1943</v>
+      <c r="F865" s="110">
+        <v>4</v>
+      </c>
+      <c r="G865" s="111" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="866" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46227,43 +46231,43 @@
       <c r="B866" s="9">
         <v>343</v>
       </c>
-      <c r="C866" s="10" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D866" s="15" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E866" s="8">
-        <v>5</v>
-      </c>
-      <c r="F866" s="8">
+      <c r="C866" s="53" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D866" s="9">
+        <v>1</v>
+      </c>
+      <c r="E866" s="9">
+        <v>3</v>
+      </c>
+      <c r="F866" s="9">
         <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A867" s="8">
         <v>866</v>
       </c>
       <c r="B867" s="9">
         <v>343</v>
       </c>
-      <c r="C867" s="53" t="s">
-        <v>1933</v>
-      </c>
-      <c r="D867" s="9">
-        <v>9</v>
-      </c>
-      <c r="E867" s="9">
-        <v>3</v>
-      </c>
-      <c r="F867" s="9">
-        <v>2</v>
+      <c r="C867" s="10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D867" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E867" s="8">
+        <v>5</v>
+      </c>
+      <c r="F867" s="8">
+        <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
@@ -46273,43 +46277,43 @@
       <c r="B868" s="9">
         <v>343</v>
       </c>
-      <c r="C868" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D868" s="15" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E868" s="8">
-        <v>5</v>
-      </c>
-      <c r="F868" s="8">
+      <c r="C868" s="53" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D868" s="9">
+        <v>9</v>
+      </c>
+      <c r="E868" s="9">
+        <v>3</v>
+      </c>
+      <c r="F868" s="9">
         <v>2</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1934</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A869" s="8">
         <v>868</v>
       </c>
-      <c r="B869" s="14">
+      <c r="B869" s="9">
         <v>343</v>
       </c>
-      <c r="C869" s="15" t="s">
+      <c r="C869" s="10" t="s">
         <v>1174</v>
       </c>
       <c r="D869" s="15" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E869" s="14">
-        <v>2</v>
-      </c>
-      <c r="F869" s="14">
-        <v>3</v>
-      </c>
-      <c r="G869" s="15" t="s">
-        <v>1932</v>
+        <v>1955</v>
+      </c>
+      <c r="E869" s="8">
+        <v>5</v>
+      </c>
+      <c r="F869" s="8">
+        <v>2</v>
+      </c>
+      <c r="G869" s="10" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.2">
@@ -46323,39 +46327,39 @@
         <v>1174</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1950</v>
+        <v>1931</v>
       </c>
       <c r="E870" s="14">
         <v>2</v>
       </c>
       <c r="F870" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G870" s="15" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="871" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A871" s="8">
         <v>870</v>
       </c>
-      <c r="B871" s="8">
-        <v>344</v>
-      </c>
-      <c r="C871" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D871" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="E871" s="8">
-        <v>5</v>
-      </c>
-      <c r="F871" s="8">
-        <v>1</v>
-      </c>
-      <c r="G871" s="10" t="s">
-        <v>1012</v>
+      <c r="B871" s="14">
+        <v>343</v>
+      </c>
+      <c r="C871" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D871" s="15" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E871" s="14">
+        <v>2</v>
+      </c>
+      <c r="F871" s="14">
+        <v>4</v>
+      </c>
+      <c r="G871" s="15" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="872" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46369,19 +46373,19 @@
         <v>865</v>
       </c>
       <c r="D872" s="10" t="s">
-        <v>1013</v>
+        <v>1981</v>
       </c>
       <c r="E872" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F872" s="8">
         <v>1</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="873" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A873" s="8">
         <v>872</v>
       </c>
@@ -46389,10 +46393,10 @@
         <v>344</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1982</v>
+        <v>1013</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
@@ -46401,7 +46405,7 @@
         <v>1</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1092</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="874" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46412,19 +46416,19 @@
         <v>344</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D874" s="8">
-        <v>600</v>
+        <v>1045</v>
+      </c>
+      <c r="D874" s="10" t="s">
+        <v>1982</v>
       </c>
       <c r="E874" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F874" s="8">
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1015</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="875" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46432,22 +46436,22 @@
         <v>874</v>
       </c>
       <c r="B875" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D875" s="10" t="s">
-        <v>1981</v>
+        <v>912</v>
+      </c>
+      <c r="D875" s="8">
+        <v>600</v>
       </c>
       <c r="E875" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F875" s="8">
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="876" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46461,16 +46465,16 @@
         <v>865</v>
       </c>
       <c r="D876" s="10" t="s">
-        <v>1013</v>
+        <v>1981</v>
       </c>
       <c r="E876" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="877" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46481,19 +46485,19 @@
         <v>345</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1964</v>
+        <v>1013</v>
       </c>
       <c r="E877" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F877" s="8">
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1081</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="878" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46504,42 +46508,42 @@
         <v>345</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D878" s="8">
-        <v>600</v>
+        <v>1045</v>
+      </c>
+      <c r="D878" s="10" t="s">
+        <v>1964</v>
       </c>
       <c r="E878" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F878" s="8">
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1015</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="879" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A879" s="8">
         <v>878</v>
       </c>
-      <c r="B879" s="9">
-        <v>346</v>
+      <c r="B879" s="8">
+        <v>345</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D879" s="15" t="s">
-        <v>1953</v>
+        <v>912</v>
+      </c>
+      <c r="D879" s="8">
+        <v>600</v>
       </c>
       <c r="E879" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F879" s="8">
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1959</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="880" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46549,23 +46553,23 @@
       <c r="B880" s="9">
         <v>346</v>
       </c>
-      <c r="C880" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D880" s="9" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E880" s="9">
-        <v>2</v>
-      </c>
-      <c r="F880" s="9">
-        <v>2</v>
-      </c>
-      <c r="G880" s="53" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C880" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D880" s="15" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E880" s="8">
+        <v>2</v>
+      </c>
+      <c r="F880" s="8">
+        <v>1</v>
+      </c>
+      <c r="G880" s="10" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A881" s="8">
         <v>880</v>
       </c>
@@ -46575,17 +46579,17 @@
       <c r="C881" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="D881" s="53" t="s">
-        <v>1956</v>
+      <c r="D881" s="9" t="s">
+        <v>1954</v>
       </c>
       <c r="E881" s="9">
         <v>2</v>
       </c>
       <c r="F881" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G881" s="53" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.2">
@@ -46599,16 +46603,16 @@
         <v>1045</v>
       </c>
       <c r="D882" s="53" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E882" s="9">
         <v>2</v>
       </c>
       <c r="F882" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G882" s="53" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.2">
@@ -46616,22 +46620,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="9">
-        <v>347</v>
-      </c>
-      <c r="C883" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D883" s="15" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E883" s="8">
-        <v>2</v>
-      </c>
-      <c r="F883" s="8">
-        <v>1</v>
-      </c>
-      <c r="G883" s="10" t="s">
-        <v>1934</v>
+        <v>346</v>
+      </c>
+      <c r="C883" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D883" s="53" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E883" s="9">
+        <v>2</v>
+      </c>
+      <c r="F883" s="9">
+        <v>4</v>
+      </c>
+      <c r="G883" s="53" t="s">
+        <v>1962</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -46639,16 +46643,16 @@
         <v>883</v>
       </c>
       <c r="B884" s="9">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="D884" s="15" t="s">
         <v>1955</v>
       </c>
       <c r="E884" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F884" s="8">
         <v>1</v>
@@ -46662,22 +46666,22 @@
         <v>884</v>
       </c>
       <c r="B885" s="9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D885" s="15" t="s">
-        <v>1628</v>
+        <v>1955</v>
       </c>
       <c r="E885" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F885" s="8">
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1973</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.2">
@@ -46685,13 +46689,13 @@
         <v>885</v>
       </c>
       <c r="B886" s="9">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C886" s="10" t="s">
         <v>1174</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1857</v>
+        <v>1628</v>
       </c>
       <c r="E886" s="8">
         <v>2</v>
@@ -46700,7 +46704,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1539</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.2">
@@ -46708,22 +46712,22 @@
         <v>886</v>
       </c>
       <c r="B887" s="9">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="D887" s="15" t="s">
-        <v>1946</v>
+        <v>1857</v>
       </c>
       <c r="E887" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F887" s="8">
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1959</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -46731,7 +46735,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="9">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C888" s="10" t="s">
         <v>1168</v>
@@ -46740,7 +46744,7 @@
         <v>1946</v>
       </c>
       <c r="E888" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F888" s="8">
         <v>1</v>
@@ -46757,19 +46761,19 @@
         <v>352</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>1988</v>
+        <v>1168</v>
       </c>
       <c r="D889" s="15" t="s">
-        <v>1628</v>
+        <v>1946</v>
       </c>
       <c r="E889" s="8">
         <v>2</v>
       </c>
       <c r="F889" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1989</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.2">
@@ -46780,19 +46784,19 @@
         <v>352</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>1168</v>
+        <v>1988</v>
       </c>
       <c r="D890" s="15" t="s">
-        <v>1857</v>
+        <v>1628</v>
       </c>
       <c r="E890" s="8">
         <v>2</v>
       </c>
       <c r="F890" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -46800,22 +46804,22 @@
         <v>890</v>
       </c>
       <c r="B891" s="9">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1997</v>
+        <v>1168</v>
       </c>
       <c r="D891" s="15" t="s">
-        <v>1998</v>
+        <v>1857</v>
       </c>
       <c r="E891" s="8">
         <v>2</v>
       </c>
       <c r="F891" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.2">
@@ -46823,22 +46827,22 @@
         <v>891</v>
       </c>
       <c r="B892" s="9">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>1168</v>
+        <v>1997</v>
       </c>
       <c r="D892" s="15" t="s">
-        <v>1857</v>
+        <v>1998</v>
       </c>
       <c r="E892" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F892" s="8">
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1990</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.2">
@@ -46849,10 +46853,10 @@
         <v>354</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D893" s="10" t="s">
-        <v>1964</v>
+        <v>1168</v>
+      </c>
+      <c r="D893" s="15" t="s">
+        <v>1857</v>
       </c>
       <c r="E893" s="8">
         <v>5</v>
@@ -46861,6 +46865,29 @@
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A894" s="8">
+        <v>893</v>
+      </c>
+      <c r="B894" s="9">
+        <v>354</v>
+      </c>
+      <c r="C894" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D894" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E894" s="8">
+        <v>5</v>
+      </c>
+      <c r="F894" s="8">
+        <v>1</v>
+      </c>
+      <c r="G894" s="10" t="s">
         <v>1081</v>
       </c>
     </row>

--- a/config_12.22/permission_server_config.xlsx
+++ b/config_12.22/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26245,10 +26245,10 @@
   <dimension ref="A1:I894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E828" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H847" sqref="H847:I849"/>
+      <selection pane="bottomRight" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29661,10 +29661,10 @@
         <v>72</v>
       </c>
       <c r="C147" s="113" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D147" s="113" t="s">
-        <v>947</v>
+        <v>1857</v>
       </c>
       <c r="E147" s="112">
         <v>2</v>
@@ -46904,7 +46904,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
